--- a/Project1_Data_Sheet/Data-sheet-STUDENTS-filled.xlsx
+++ b/Project1_Data_Sheet/Data-sheet-STUDENTS-filled.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Country (according to CN Gov):</t>
   </si>
@@ -149,6 +149,9 @@
     <t>isocode</t>
   </si>
   <si>
+    <t>isocode2</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -353,21 +356,12 @@
     <t>Yemen</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>B+</t>
   </si>
   <si>
-    <t>A-</t>
-  </si>
-  <si>
     <t>AFG</t>
   </si>
   <si>
@@ -570,6 +564,210 @@
   </si>
   <si>
     <t>YEM</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>YE</t>
   </si>
 </sst>
 </file>
@@ -931,13 +1129,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS69"/>
+  <dimension ref="A1:AT69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,13 +1268,28 @@
       <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:46">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>51.5</v>
+      </c>
+      <c r="E2">
+        <v>152</v>
+      </c>
+      <c r="F2">
+        <v>2.954762</v>
+      </c>
+      <c r="G2">
+        <v>114</v>
       </c>
       <c r="H2">
         <v>35.203141190445</v>
@@ -1084,46 +1297,79 @@
       <c r="I2">
         <v>12.2018301907814</v>
       </c>
-      <c r="M2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" t="s">
-        <v>112</v>
-      </c>
       <c r="O2">
         <v>52143094123.1293</v>
       </c>
-      <c r="P2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>112</v>
+      <c r="R2">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>172</v>
+      </c>
+      <c r="T2">
+        <v>19199437988.8023</v>
+      </c>
+      <c r="U2">
+        <v>590.2695153826051</v>
+      </c>
+      <c r="V2">
+        <v>1.51991126448578</v>
+      </c>
+      <c r="W2">
+        <v>-1.28616720583651</v>
+      </c>
+      <c r="X2">
+        <v>22.6039268726035</v>
+      </c>
+      <c r="Y2">
+        <v>22.4166817955447</v>
+      </c>
+      <c r="Z2">
+        <v>54.9793913318518</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
+      <c r="AG2">
+        <v>0.00479531700849711</v>
+      </c>
+      <c r="AH2">
+        <v>49.8216493582085</v>
+      </c>
+      <c r="AI2">
+        <v>26.703</v>
+      </c>
       <c r="AM2">
         <v>0.7188979944831519</v>
       </c>
       <c r="AO2">
         <v>162.78115818</v>
       </c>
-      <c r="AP2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>112</v>
-      </c>
       <c r="AS2" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:46">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>66.5</v>
+      </c>
+      <c r="E3">
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <v>6.828571000000001</v>
+      </c>
+      <c r="G3">
+        <v>34</v>
       </c>
       <c r="H3">
         <v>2.21645910864918</v>
@@ -1131,6 +1377,12 @@
       <c r="I3">
         <v>13.2325333809177</v>
       </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
       <c r="M3">
         <v>46</v>
       </c>
@@ -1146,9 +1398,45 @@
       <c r="Q3">
         <v>156.1011</v>
       </c>
+      <c r="R3">
+        <v>36</v>
+      </c>
+      <c r="S3">
+        <v>99</v>
+      </c>
+      <c r="T3">
+        <v>11455595709.1413</v>
+      </c>
+      <c r="U3">
+        <v>3965.01680558488</v>
+      </c>
+      <c r="V3">
+        <v>2.55999999999999</v>
+      </c>
+      <c r="W3">
+        <v>2.71928006930717</v>
+      </c>
+      <c r="X3">
+        <v>22.0492060503358</v>
+      </c>
+      <c r="Y3">
+        <v>26.1513054666415</v>
+      </c>
+      <c r="Z3">
+        <v>51.7994884830226</v>
+      </c>
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AG3">
+        <v>6.5737158729496</v>
+      </c>
+      <c r="AH3">
+        <v>105.444051094891</v>
+      </c>
+      <c r="AI3">
+        <v>57.407</v>
+      </c>
       <c r="AM3">
         <v>8.015508382608219</v>
       </c>
@@ -1161,16 +1449,34 @@
       <c r="AQ3">
         <v>1232</v>
       </c>
+      <c r="AR3">
+        <v>14</v>
+      </c>
       <c r="AS3" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:46">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>67.7</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>5.57619</v>
+      </c>
+      <c r="G4">
+        <v>72</v>
       </c>
       <c r="H4">
         <v>6.27539489392694</v>
@@ -1178,6 +1484,12 @@
       <c r="I4">
         <v>5.43231777940314</v>
       </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
       <c r="M4">
         <v>689.46</v>
       </c>
@@ -1190,12 +1502,45 @@
       <c r="P4">
         <v>0.2277</v>
       </c>
-      <c r="Q4" t="s">
-        <v>112</v>
+      <c r="R4">
+        <v>35</v>
+      </c>
+      <c r="S4">
+        <v>105</v>
+      </c>
+      <c r="T4">
+        <v>10561401185.098</v>
+      </c>
+      <c r="U4">
+        <v>3499.80421759862</v>
+      </c>
+      <c r="V4">
+        <v>3.00000000125773</v>
+      </c>
+      <c r="W4">
+        <v>2.60550443640113</v>
+      </c>
+      <c r="X4">
+        <v>19.3520404502788</v>
+      </c>
+      <c r="Y4">
+        <v>28.7222907426849</v>
+      </c>
+      <c r="Z4">
+        <v>51.9256688070363</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
+      <c r="AG4">
+        <v>9.144970324967581</v>
+      </c>
+      <c r="AH4">
+        <v>105.996206533193</v>
+      </c>
+      <c r="AI4">
+        <v>62.673</v>
+      </c>
       <c r="AM4">
         <v>2.04411103926791</v>
       </c>
@@ -1208,22 +1553,46 @@
       <c r="AQ4">
         <v>2685</v>
       </c>
+      <c r="AR4">
+        <v>107</v>
+      </c>
       <c r="AS4" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:46">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>4.127381</v>
+      </c>
+      <c r="G5">
+        <v>107</v>
       </c>
       <c r="H5">
         <v>7.57184668387459</v>
       </c>
-      <c r="I5" t="s">
-        <v>112</v>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
       </c>
       <c r="M5">
         <v>4633</v>
@@ -1237,12 +1606,45 @@
       <c r="P5">
         <v>0.18521</v>
       </c>
-      <c r="Q5" t="s">
-        <v>112</v>
+      <c r="R5">
+        <v>25</v>
+      </c>
+      <c r="S5">
+        <v>152</v>
+      </c>
+      <c r="T5">
+        <v>53047140347.4527</v>
+      </c>
+      <c r="U5">
+        <v>5496.34464026248</v>
+      </c>
+      <c r="V5">
+        <v>1.09999999999999</v>
+      </c>
+      <c r="W5">
+        <v>-0.117953780347179</v>
+      </c>
+      <c r="X5">
+        <v>6.79136800335426</v>
+      </c>
+      <c r="Y5">
+        <v>36.9931249761771</v>
+      </c>
+      <c r="Z5">
+        <v>56.2155070204686</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
+      <c r="AG5">
+        <v>19.9484239802322</v>
+      </c>
+      <c r="AH5">
+        <v>116.761018158942</v>
+      </c>
+      <c r="AI5">
+        <v>54.62</v>
+      </c>
       <c r="AM5">
         <v>2.98894773250189</v>
       </c>
@@ -1255,28 +1657,43 @@
       <c r="AQ5">
         <v>2817</v>
       </c>
+      <c r="AR5">
+        <v>144</v>
+      </c>
       <c r="AS5" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:46">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <v>4.616667</v>
+      </c>
+      <c r="G6">
+        <v>112</v>
       </c>
       <c r="H6">
         <v>27.3860911270983</v>
       </c>
-      <c r="I6" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N6" t="s">
-        <v>112</v>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <v>12</v>
       </c>
       <c r="O6">
         <v>25891874525.3579</v>
@@ -1287,9 +1704,45 @@
       <c r="Q6">
         <v>368.90235</v>
       </c>
+      <c r="R6">
+        <v>36</v>
+      </c>
+      <c r="S6">
+        <v>99</v>
+      </c>
+      <c r="T6">
+        <v>32221489361.7021</v>
+      </c>
+      <c r="U6">
+        <v>23395.7476902684</v>
+      </c>
+      <c r="V6">
+        <v>2.92656721719055</v>
+      </c>
+      <c r="W6">
+        <v>1.78261235365325</v>
+      </c>
+      <c r="X6">
+        <v>25.4640636454042</v>
+      </c>
+      <c r="Y6">
+        <v>41.3708969169512</v>
+      </c>
+      <c r="Z6">
+        <v>58.3286560442681</v>
+      </c>
       <c r="AA6">
         <v>0</v>
       </c>
+      <c r="AG6">
+        <v>21.3949591960783</v>
+      </c>
+      <c r="AH6">
+        <v>1788.61948051948</v>
+      </c>
+      <c r="AI6">
+        <v>88.77500000000001</v>
+      </c>
       <c r="AM6">
         <v>4.01407215183723</v>
       </c>
@@ -1302,16 +1755,34 @@
       <c r="AQ6">
         <v>253</v>
       </c>
+      <c r="AR6">
+        <v>8</v>
+      </c>
       <c r="AS6" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:46">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>55.6</v>
+      </c>
+      <c r="E7">
+        <v>121</v>
+      </c>
+      <c r="F7">
+        <v>5.111905</v>
+      </c>
+      <c r="G7">
+        <v>80</v>
       </c>
       <c r="H7">
         <v>28.9230080455078</v>
@@ -1328,37 +1799,82 @@
       <c r="O7">
         <v>468641046891.964</v>
       </c>
-      <c r="P7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>112</v>
+      <c r="R7">
+        <v>26</v>
+      </c>
+      <c r="S7">
+        <v>149</v>
+      </c>
+      <c r="T7">
+        <v>195078665827.565</v>
+      </c>
+      <c r="U7">
+        <v>1211.70153057661</v>
+      </c>
+      <c r="V7">
+        <v>6.55263331602802</v>
+      </c>
+      <c r="W7">
+        <v>5.2831474252867</v>
+      </c>
+      <c r="X7">
+        <v>14.8497291534782</v>
+      </c>
+      <c r="Y7">
+        <v>28.1463235005595</v>
+      </c>
+      <c r="Z7">
+        <v>56.3462045652581</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
+      <c r="AG7">
+        <v>1.95137268924477</v>
+      </c>
+      <c r="AH7">
+        <v>1236.81064761466</v>
+      </c>
+      <c r="AI7">
+        <v>34.277</v>
+      </c>
       <c r="AM7">
         <v>1.07297613722048</v>
       </c>
       <c r="AO7">
         <v>90.59840432999999</v>
       </c>
-      <c r="AP7" t="s">
-        <v>112</v>
-      </c>
       <c r="AQ7">
         <v>9247</v>
       </c>
+      <c r="AR7">
+        <v>61</v>
+      </c>
       <c r="AS7" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:46">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>57.9</v>
+      </c>
+      <c r="E8">
+        <v>104</v>
+      </c>
+      <c r="F8">
+        <v>4.720238</v>
+      </c>
+      <c r="G8">
+        <v>85</v>
       </c>
       <c r="H8">
         <v>8.200619287304651</v>
@@ -1366,6 +1882,12 @@
       <c r="I8">
         <v>12.8521944714263</v>
       </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
       <c r="M8">
         <v>48538</v>
       </c>
@@ -1378,12 +1900,45 @@
       <c r="P8">
         <v>0.58716</v>
       </c>
-      <c r="Q8" t="s">
-        <v>112</v>
+      <c r="R8">
+        <v>44</v>
+      </c>
+      <c r="S8">
+        <v>70</v>
+      </c>
+      <c r="T8">
+        <v>54608962634.9908</v>
+      </c>
+      <c r="U8">
+        <v>5740.45649479562</v>
+      </c>
+      <c r="V8">
+        <v>-3.88769850231654</v>
+      </c>
+      <c r="W8">
+        <v>-4.19079626799829</v>
+      </c>
+      <c r="X8">
+        <v>0.300447038780779</v>
+      </c>
+      <c r="Y8">
+        <v>40.1472592179596</v>
+      </c>
+      <c r="Z8">
+        <v>52.0569624048448</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
+      <c r="AG8">
+        <v>28.840349868586</v>
+      </c>
+      <c r="AH8">
+        <v>46.8828544674979</v>
+      </c>
+      <c r="AI8">
+        <v>76.667</v>
+      </c>
       <c r="AM8">
         <v>2.47207227542048</v>
       </c>
@@ -1396,16 +1951,34 @@
       <c r="AQ8">
         <v>4453</v>
       </c>
+      <c r="AR8">
+        <v>434</v>
+      </c>
       <c r="AS8" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:46">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>62.9</v>
+      </c>
+      <c r="E9">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>6.247619</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
       </c>
       <c r="H9">
         <v>2.84050136682242</v>
@@ -1413,46 +1986,85 @@
       <c r="I9">
         <v>8.417308419151469</v>
       </c>
-      <c r="M9" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" t="s">
-        <v>112</v>
-      </c>
       <c r="O9">
         <v>3833998891.6148</v>
       </c>
-      <c r="P9" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>112</v>
+      <c r="R9">
+        <v>68</v>
+      </c>
+      <c r="S9">
+        <v>25</v>
+      </c>
+      <c r="T9">
+        <v>1962221695.69413</v>
+      </c>
+      <c r="U9">
+        <v>2532.45446832741</v>
+      </c>
+      <c r="V9">
+        <v>3.25425473889356</v>
+      </c>
+      <c r="W9">
+        <v>1.9453698350496</v>
+      </c>
+      <c r="X9">
+        <v>2.77654622035025</v>
+      </c>
+      <c r="Y9">
+        <v>42.0790242339736</v>
+      </c>
+      <c r="Z9">
+        <v>40.8652126344372</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
+      <c r="AG9">
+        <v>3.26287437038895</v>
+      </c>
+      <c r="AH9">
+        <v>20.327675315476</v>
+      </c>
+      <c r="AI9">
+        <v>38.644</v>
+      </c>
       <c r="AM9">
         <v>0.104526590777132</v>
       </c>
       <c r="AO9">
         <v>293.1100222</v>
       </c>
-      <c r="AP9" t="s">
-        <v>112</v>
-      </c>
       <c r="AQ9">
         <v>16</v>
       </c>
+      <c r="AR9">
+        <v>4</v>
+      </c>
       <c r="AS9" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:46">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>61.9</v>
+      </c>
+      <c r="E10">
+        <v>83</v>
+      </c>
+      <c r="F10">
+        <v>6.282143</v>
+      </c>
+      <c r="G10">
+        <v>57</v>
       </c>
       <c r="H10">
         <v>0.000155359665070619</v>
@@ -1460,6 +2072,12 @@
       <c r="I10">
         <v>10.0462751524632</v>
       </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
       <c r="M10">
         <v>1114.326546</v>
       </c>
@@ -1475,9 +2093,45 @@
       <c r="Q10">
         <v>463.89852</v>
       </c>
+      <c r="R10">
+        <v>38</v>
+      </c>
+      <c r="S10">
+        <v>89</v>
+      </c>
+      <c r="T10">
+        <v>15995392117.9473</v>
+      </c>
+      <c r="U10">
+        <v>4197.80730449044</v>
+      </c>
+      <c r="V10">
+        <v>3.15757629916973</v>
+      </c>
+      <c r="W10">
+        <v>3.35081997115292</v>
+      </c>
+      <c r="X10">
+        <v>5.13820734776027</v>
+      </c>
+      <c r="Y10">
+        <v>27.13001108395</v>
+      </c>
+      <c r="Z10">
+        <v>65.7655687803434</v>
+      </c>
       <c r="AA10">
         <v>0</v>
       </c>
+      <c r="AG10">
+        <v>14.1814645992178</v>
+      </c>
+      <c r="AH10">
+        <v>74.42218750000001</v>
+      </c>
+      <c r="AI10">
+        <v>39.767</v>
+      </c>
       <c r="AM10">
         <v>2.45426242919083</v>
       </c>
@@ -1490,29 +2144,32 @@
       <c r="AQ10">
         <v>742</v>
       </c>
+      <c r="AR10">
+        <v>87</v>
+      </c>
       <c r="AS10" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:46">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>112</v>
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="E11">
+        <v>63</v>
       </c>
       <c r="I11">
         <v>3.53839872754278</v>
       </c>
-      <c r="M11" t="s">
-        <v>112</v>
-      </c>
-      <c r="N11" t="s">
-        <v>112</v>
-      </c>
       <c r="O11">
         <v>4723443055.38061</v>
       </c>
@@ -1522,9 +2179,42 @@
       <c r="Q11">
         <v>283.4311</v>
       </c>
+      <c r="R11">
+        <v>63</v>
+      </c>
+      <c r="S11">
+        <v>31</v>
+      </c>
+      <c r="T11">
+        <v>15492035784.4207</v>
+      </c>
+      <c r="U11">
+        <v>36607.9278817468</v>
+      </c>
+      <c r="V11">
+        <v>6.49999990951666</v>
+      </c>
+      <c r="W11">
+        <v>-1.86228579260282</v>
+      </c>
+      <c r="Y11">
+        <v>68.2404242547513</v>
+      </c>
+      <c r="Z11">
+        <v>31.0337984988367</v>
+      </c>
       <c r="AA11">
         <v>0</v>
       </c>
+      <c r="AG11">
+        <v>7.14996278399357</v>
+      </c>
+      <c r="AH11">
+        <v>80.30132827324481</v>
+      </c>
+      <c r="AI11">
+        <v>77.202</v>
+      </c>
       <c r="AM11">
         <v>3.77012889037483</v>
       </c>
@@ -1537,16 +2227,34 @@
       <c r="AQ11">
         <v>176</v>
       </c>
+      <c r="AR11">
+        <v>8</v>
+      </c>
       <c r="AS11" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:46">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>7.8</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
       </c>
       <c r="H12">
         <v>0.06885960996340169</v>
@@ -1554,6 +2262,15 @@
       <c r="I12">
         <v>10.434453416252</v>
       </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
       <c r="M12">
         <v>2859.82</v>
       </c>
@@ -1564,14 +2281,50 @@
         <v>86549146095.8884</v>
       </c>
       <c r="P12">
-        <v>0.78006</v>
+        <v>0.77079</v>
       </c>
       <c r="Q12">
-        <v>2243.70938</v>
+        <v>2130.54538</v>
+      </c>
+      <c r="R12">
+        <v>42</v>
+      </c>
+      <c r="S12">
+        <v>77</v>
+      </c>
+      <c r="T12">
+        <v>48952959079.5738</v>
+      </c>
+      <c r="U12">
+        <v>6819.86910816324</v>
+      </c>
+      <c r="V12">
+        <v>2.96713547854921</v>
+      </c>
+      <c r="W12">
+        <v>3.62623786163006</v>
+      </c>
+      <c r="X12">
+        <v>7.79577837719564</v>
+      </c>
+      <c r="Y12">
+        <v>27.6133062083995</v>
+      </c>
+      <c r="Z12">
+        <v>67.24848644384021</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
+      <c r="AG12">
+        <v>20.6597295367549</v>
+      </c>
+      <c r="AH12">
+        <v>66.12003500368461</v>
+      </c>
+      <c r="AI12">
+        <v>73.94799999999999</v>
+      </c>
       <c r="AM12">
         <v>3.96103655028061</v>
       </c>
@@ -1579,33 +2332,39 @@
         <v>1577.94276162</v>
       </c>
       <c r="AP12">
-        <v>0.78006</v>
+        <v>0.77079</v>
       </c>
       <c r="AQ12">
         <v>13438</v>
       </c>
+      <c r="AR12">
+        <v>202</v>
+      </c>
       <c r="AS12" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:46">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
         <v>43328</v>
       </c>
       <c r="D13">
-        <v>58.7</v>
+        <v>57.8</v>
       </c>
       <c r="E13">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>3.997619</v>
       </c>
       <c r="G13">
         <v>103</v>
@@ -1620,7 +2379,7 @@
         <v>113</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M13">
         <v>92</v>
@@ -1638,7 +2397,7 @@
         <v>30.37447</v>
       </c>
       <c r="R13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S13">
         <v>161</v>
@@ -1650,19 +2409,19 @@
         <v>1158.68990352486</v>
       </c>
       <c r="V13">
-        <v>0.07036087179364769</v>
+        <v>7.03608717936477</v>
       </c>
       <c r="W13">
-        <v>0.053199601045789</v>
+        <v>5.3199601045789</v>
       </c>
       <c r="X13">
-        <v>0.159416995164261</v>
+        <v>15.9416995164261</v>
       </c>
       <c r="Y13">
-        <v>0.294173723333596</v>
+        <v>29.4173723333596</v>
       </c>
       <c r="Z13">
-        <v>0.423334790133704</v>
+        <v>42.3334790133704</v>
       </c>
       <c r="AA13">
         <v>0.876925508631561</v>
@@ -1707,18 +2466,33 @@
         <v>1182</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS13" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:46">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>58.4</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>5.016666000000001</v>
+      </c>
+      <c r="G14">
+        <v>109</v>
       </c>
       <c r="H14">
         <v>3.89434134127694</v>
@@ -1726,6 +2500,15 @@
       <c r="I14">
         <v>1.74435460635256</v>
       </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>17</v>
+      </c>
       <c r="M14">
         <v>2146466</v>
       </c>
@@ -1736,10 +2519,16 @@
         <v>8309059305343.22</v>
       </c>
       <c r="P14">
-        <v>2.10826</v>
+        <v>2.1286</v>
       </c>
       <c r="Q14">
-        <v>1205.68248</v>
+        <v>1234.7788</v>
+      </c>
+      <c r="R14">
+        <v>39</v>
+      </c>
+      <c r="S14">
+        <v>87</v>
       </c>
       <c r="AC14">
         <v>24</v>
@@ -1757,21 +2546,39 @@
         <v>761.48785586</v>
       </c>
       <c r="AP14">
-        <v>2.10826</v>
+        <v>2.1286</v>
       </c>
       <c r="AQ14">
         <v>5539086</v>
       </c>
+      <c r="AR14">
+        <v>1245709</v>
+      </c>
       <c r="AS14" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:46">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>61.4</v>
+      </c>
+      <c r="E15">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>8.067857999999999</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
       </c>
       <c r="H15">
         <v>-0.0376305545169416</v>
@@ -1779,6 +2586,15 @@
       <c r="I15">
         <v>11.2015418446349</v>
       </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
       <c r="M15">
         <v>2012</v>
       </c>
@@ -1789,14 +2605,50 @@
         <v>55560901494.4673</v>
       </c>
       <c r="P15">
-        <v>0.84581</v>
+        <v>0.8700599999999999</v>
       </c>
       <c r="Q15">
-        <v>1793.14617</v>
+        <v>1865.44318</v>
+      </c>
+      <c r="R15">
+        <v>48</v>
+      </c>
+      <c r="S15">
+        <v>60</v>
+      </c>
+      <c r="T15">
+        <v>48732003674.38</v>
+      </c>
+      <c r="U15">
+        <v>11535.8293558997</v>
+      </c>
+      <c r="V15">
+        <v>1.64461325883687</v>
+      </c>
+      <c r="W15">
+        <v>1.98111041119844</v>
+      </c>
+      <c r="X15">
+        <v>0.408301543908572</v>
+      </c>
+      <c r="Y15">
+        <v>26.2052927095021</v>
+      </c>
+      <c r="Z15">
+        <v>69.50386606472389</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
+      <c r="AG15">
+        <v>23.0448235083721</v>
+      </c>
+      <c r="AH15">
+        <v>75.48970693352391</v>
+      </c>
+      <c r="AI15">
+        <v>58.964</v>
+      </c>
       <c r="AM15">
         <v>2.11223904132641</v>
       </c>
@@ -1804,21 +2656,39 @@
         <v>1705.20761848</v>
       </c>
       <c r="AP15">
-        <v>0.84581</v>
+        <v>0.8700599999999999</v>
       </c>
       <c r="AQ15">
         <v>4348</v>
       </c>
+      <c r="AR15">
+        <v>148</v>
+      </c>
       <c r="AS15" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:46">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>73.7</v>
+      </c>
+      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>9.521428999999999</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
       </c>
       <c r="H16">
         <v>0.819566734190984</v>
@@ -1826,6 +2696,15 @@
       <c r="I16">
         <v>3.74172036339308</v>
       </c>
+      <c r="J16">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>17</v>
+      </c>
       <c r="M16">
         <v>11819</v>
       </c>
@@ -1836,14 +2715,50 @@
         <v>178736442938.071</v>
       </c>
       <c r="P16">
-        <v>1.6783</v>
+        <v>1.79235</v>
       </c>
       <c r="Q16">
-        <v>3518.81882</v>
+        <v>3689.9158</v>
+      </c>
+      <c r="R16">
+        <v>59</v>
+      </c>
+      <c r="S16">
+        <v>38</v>
+      </c>
+      <c r="T16">
+        <v>181811026983.078</v>
+      </c>
+      <c r="U16">
+        <v>17231.2817109642</v>
+      </c>
+      <c r="V16">
+        <v>4.19804965676525</v>
+      </c>
+      <c r="W16">
+        <v>3.94255198007787</v>
+      </c>
+      <c r="X16">
+        <v>28.2491486532701</v>
+      </c>
+      <c r="Y16">
+        <v>38.091385170647</v>
+      </c>
+      <c r="Z16">
+        <v>59.5250579376435</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
+      <c r="AG16">
+        <v>27.8834963243687</v>
+      </c>
+      <c r="AH16">
+        <v>136.620730286158</v>
+      </c>
+      <c r="AI16">
+        <v>72.992</v>
+      </c>
       <c r="AM16">
         <v>3.46360022575233</v>
       </c>
@@ -1851,74 +2766,122 @@
         <v>2484.63352906</v>
       </c>
       <c r="AP16">
-        <v>1.6783</v>
+        <v>1.79235</v>
       </c>
       <c r="AQ16">
         <v>20031</v>
       </c>
+      <c r="AR16">
+        <v>794</v>
+      </c>
       <c r="AS16" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:46">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>44.2</v>
+      </c>
+      <c r="E17">
+        <v>172</v>
       </c>
       <c r="H17">
         <v>4.77991862435917</v>
       </c>
-      <c r="I17" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" t="s">
-        <v>112</v>
-      </c>
       <c r="O17">
         <v>1592908008.89083</v>
       </c>
-      <c r="P17" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>112</v>
+      <c r="R17">
+        <v>35</v>
+      </c>
+      <c r="S17">
+        <v>105</v>
+      </c>
+      <c r="T17">
+        <v>1412377919.12175</v>
+      </c>
+      <c r="U17">
+        <v>1134.42642789183</v>
+      </c>
+      <c r="V17">
+        <v>4.251</v>
+      </c>
+      <c r="W17">
+        <v>1.49545736958994</v>
+      </c>
+      <c r="X17">
+        <v>17.0557631315892</v>
+      </c>
+      <c r="Y17">
+        <v>17.5981873111782</v>
+      </c>
+      <c r="Z17">
+        <v>63.2175226586103</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
+      <c r="AG17">
+        <v>0.0892021182899919</v>
+      </c>
+      <c r="AH17">
+        <v>83.72663080026901</v>
+      </c>
+      <c r="AI17">
+        <v>32.77</v>
+      </c>
       <c r="AM17">
         <v>1.85687717938783</v>
       </c>
       <c r="AO17">
         <v>121.67577263</v>
       </c>
-      <c r="AP17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>112</v>
-      </c>
       <c r="AS17" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:46">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>52.5</v>
+      </c>
+      <c r="E18">
+        <v>144</v>
+      </c>
+      <c r="F18">
+        <v>4.278572</v>
+      </c>
+      <c r="G18">
+        <v>98</v>
       </c>
       <c r="H18">
         <v>6.8490016570956</v>
       </c>
-      <c r="I18" t="s">
-        <v>112</v>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
       </c>
       <c r="M18">
         <v>1592.136</v>
@@ -1935,9 +2898,45 @@
       <c r="Q18">
         <v>669.39201</v>
       </c>
+      <c r="R18">
+        <v>35</v>
+      </c>
+      <c r="S18">
+        <v>105</v>
+      </c>
+      <c r="T18">
+        <v>330778550716.746</v>
+      </c>
+      <c r="U18">
+        <v>3614.74676616271</v>
+      </c>
+      <c r="V18">
+        <v>4.2</v>
+      </c>
+      <c r="W18">
+        <v>2.00412035727904</v>
+      </c>
+      <c r="X18">
+        <v>11.1816471975681</v>
+      </c>
+      <c r="Y18">
+        <v>36.3195006150812</v>
+      </c>
+      <c r="Z18">
+        <v>52.498864387308</v>
+      </c>
       <c r="AA18">
         <v>0</v>
       </c>
+      <c r="AG18">
+        <v>3.6790957852423</v>
+      </c>
+      <c r="AH18">
+        <v>91.9263488874378</v>
+      </c>
+      <c r="AI18">
+        <v>43.135</v>
+      </c>
       <c r="AM18">
         <v>2.70933548925046</v>
       </c>
@@ -1950,16 +2949,34 @@
       <c r="AQ18">
         <v>12750</v>
       </c>
+      <c r="AR18">
+        <v>918</v>
+      </c>
       <c r="AS18" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:46">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>9.517857000000001</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0.039428987382724</v>
@@ -1967,6 +2984,12 @@
       <c r="I19">
         <v>0.698391485843613</v>
       </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
       <c r="M19">
         <v>4807</v>
       </c>
@@ -1977,14 +3000,47 @@
         <v>20492929462.7872</v>
       </c>
       <c r="P19">
-        <v>1.28129</v>
+        <v>1.323</v>
       </c>
       <c r="Q19">
-        <v>3305.28892</v>
+        <v>3568.9415</v>
+      </c>
+      <c r="R19">
+        <v>73</v>
+      </c>
+      <c r="S19">
+        <v>18</v>
+      </c>
+      <c r="T19">
+        <v>22691482754.7965</v>
+      </c>
+      <c r="U19">
+        <v>17295.36383043</v>
+      </c>
+      <c r="V19">
+        <v>1.06784053106526</v>
+      </c>
+      <c r="W19">
+        <v>1.26404493826149</v>
+      </c>
+      <c r="Y19">
+        <v>26.7491961759834</v>
+      </c>
+      <c r="Z19">
+        <v>69.7459447339573</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
+      <c r="AG19">
+        <v>28.8999362035753</v>
+      </c>
+      <c r="AH19">
+        <v>30.9506487379099</v>
+      </c>
+      <c r="AI19">
+        <v>67.538</v>
+      </c>
       <c r="AM19">
         <v>3.93172182730291</v>
       </c>
@@ -1992,24 +3048,33 @@
         <v>1987.71815596</v>
       </c>
       <c r="AP19">
-        <v>1.28129</v>
+        <v>1.323</v>
       </c>
       <c r="AQ19">
         <v>2197</v>
       </c>
+      <c r="AR19">
+        <v>37</v>
+      </c>
       <c r="AS19" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:46">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>63.8</v>
+      </c>
+      <c r="E20">
+        <v>71</v>
       </c>
       <c r="H20">
         <v>-0.0232445343314451</v>
@@ -2017,6 +3082,15 @@
       <c r="I20">
         <v>3.08041478456105</v>
       </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
       <c r="M20">
         <v>24598</v>
       </c>
@@ -2027,10 +3101,16 @@
         <v>1474608505409.61</v>
       </c>
       <c r="P20">
-        <v>2.24805</v>
+        <v>2.18868</v>
       </c>
       <c r="Q20">
-        <v>4307.22237</v>
+        <v>4441.07429</v>
+      </c>
+      <c r="R20">
+        <v>72</v>
+      </c>
+      <c r="S20">
+        <v>21</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2048,21 +3128,39 @@
         <v>4782.28854931</v>
       </c>
       <c r="AP20">
-        <v>2.24805</v>
+        <v>2.18868</v>
       </c>
       <c r="AQ20">
         <v>252960</v>
       </c>
+      <c r="AR20">
+        <v>14415</v>
+      </c>
       <c r="AS20" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:46">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>6.417857</v>
+      </c>
+      <c r="G21">
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0.757021008880042</v>
@@ -2070,6 +3168,15 @@
       <c r="I21">
         <v>2.77879996979284</v>
       </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
       <c r="M21">
         <v>2963</v>
       </c>
@@ -2080,14 +3187,50 @@
         <v>21447469375.7908</v>
       </c>
       <c r="P21">
-        <v>0.30104</v>
+        <v>0.28955</v>
       </c>
       <c r="Q21">
-        <v>1336.56272</v>
+        <v>1339.70815</v>
+      </c>
+      <c r="R21">
+        <v>58</v>
+      </c>
+      <c r="S21">
+        <v>41</v>
+      </c>
+      <c r="T21">
+        <v>13965385801.7891</v>
+      </c>
+      <c r="U21">
+        <v>3795.97330845042</v>
+      </c>
+      <c r="V21">
+        <v>2.77492809454047</v>
+      </c>
+      <c r="W21">
+        <v>4.11583501178372</v>
+      </c>
+      <c r="X21">
+        <v>10.2665463273775</v>
+      </c>
+      <c r="Y21">
+        <v>24.5206288020114</v>
+      </c>
+      <c r="Z21">
+        <v>66.2902111459188</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
+      <c r="AG21">
+        <v>12.1530002715806</v>
+      </c>
+      <c r="AH21">
+        <v>64.36544315756321</v>
+      </c>
+      <c r="AI21">
+        <v>53.641</v>
+      </c>
       <c r="AM21">
         <v>7.30479224508309</v>
       </c>
@@ -2095,24 +3238,33 @@
         <v>797.17595278</v>
       </c>
       <c r="AP21">
-        <v>0.30104</v>
+        <v>0.28955</v>
       </c>
       <c r="AQ21">
         <v>2742</v>
       </c>
+      <c r="AR21">
+        <v>75</v>
+      </c>
       <c r="AS21" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:46">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>73.5</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
       </c>
       <c r="H22">
         <v>0.0212485657218138</v>
@@ -2120,6 +3272,15 @@
       <c r="I22">
         <v>1.5</v>
       </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <v>21</v>
+      </c>
       <c r="M22">
         <v>70614</v>
       </c>
@@ -2130,10 +3291,16 @@
         <v>2183140907124.03</v>
       </c>
       <c r="P22">
-        <v>2.93949</v>
+        <v>3.03529</v>
       </c>
       <c r="Q22">
-        <v>4893.15272</v>
+        <v>5036.17985</v>
+      </c>
+      <c r="R22">
+        <v>80</v>
+      </c>
+      <c r="S22">
+        <v>11</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -2157,21 +3324,39 @@
         <v>5463.33065234</v>
       </c>
       <c r="AP22">
-        <v>2.93949</v>
+        <v>3.03529</v>
       </c>
       <c r="AQ22">
         <v>203252</v>
       </c>
+      <c r="AR22">
+        <v>47785</v>
+      </c>
       <c r="AS22" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:46">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23">
         <v>65</v>
+      </c>
+      <c r="E23">
+        <v>64</v>
+      </c>
+      <c r="F23">
+        <v>7.432142999999999</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
       </c>
       <c r="H23">
         <v>-0.000144686648107121</v>
@@ -2179,6 +3364,15 @@
       <c r="I23">
         <v>4.16591962701521</v>
       </c>
+      <c r="J23">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>11</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
       <c r="M23">
         <v>446.842</v>
       </c>
@@ -2189,14 +3383,50 @@
         <v>133016238698.525</v>
       </c>
       <c r="P23">
-        <v>1.20606</v>
+        <v>1.35467</v>
       </c>
       <c r="Q23">
-        <v>2645.6738</v>
+        <v>2924.01661</v>
+      </c>
+      <c r="R23">
+        <v>46</v>
+      </c>
+      <c r="S23">
+        <v>64</v>
+      </c>
+      <c r="T23">
+        <v>120687138088.121</v>
+      </c>
+      <c r="U23">
+        <v>12259.1150279573</v>
+      </c>
+      <c r="V23">
+        <v>2.93891579055648</v>
+      </c>
+      <c r="W23">
+        <v>3.16667475247256</v>
+      </c>
+      <c r="X23">
+        <v>0.0348691213985421</v>
+      </c>
+      <c r="Y23">
+        <v>31.1712860578148</v>
+      </c>
+      <c r="Z23">
+        <v>64.36446317477299</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
+      <c r="AG23">
+        <v>27.3466695888615</v>
+      </c>
+      <c r="AH23">
+        <v>108.745012702971</v>
+      </c>
+      <c r="AI23">
+        <v>71.227</v>
+      </c>
       <c r="AM23">
         <v>-46.7692156995959</v>
       </c>
@@ -2204,68 +3434,92 @@
         <v>1963.16263</v>
       </c>
       <c r="AP23">
-        <v>1.20606</v>
+        <v>1.35467</v>
       </c>
       <c r="AQ23">
         <v>9978</v>
       </c>
+      <c r="AR23">
+        <v>496</v>
+      </c>
       <c r="AS23" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:46">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" t="s">
-        <v>112</v>
-      </c>
-      <c r="M24" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24" t="s">
-        <v>112</v>
-      </c>
-      <c r="O24" t="s">
-        <v>112</v>
-      </c>
-      <c r="P24" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>112</v>
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <v>55.2</v>
+      </c>
+      <c r="E24">
+        <v>129</v>
+      </c>
+      <c r="T24">
+        <v>2073542978208.77</v>
+      </c>
+      <c r="U24">
+        <v>1581.58891324619</v>
+      </c>
+      <c r="V24">
+        <v>7.57013036787396</v>
+      </c>
+      <c r="W24">
+        <v>6.27712454663818</v>
+      </c>
+      <c r="X24">
+        <v>17.391733738112</v>
+      </c>
+      <c r="Y24">
+        <v>30.0083304644494</v>
+      </c>
+      <c r="Z24">
+        <v>52.5999357974386</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
-      <c r="AM24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>112</v>
+      <c r="AG24">
+        <v>1.24269978084907</v>
+      </c>
+      <c r="AH24">
+        <v>440.957532818286</v>
+      </c>
+      <c r="AI24">
+        <v>32.747</v>
       </c>
       <c r="AS24" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:46">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>65.8</v>
+      </c>
+      <c r="E25">
+        <v>56</v>
+      </c>
+      <c r="F25">
+        <v>6.25</v>
+      </c>
+      <c r="G25">
+        <v>43</v>
       </c>
       <c r="H25">
         <v>2.56897518332382</v>
@@ -2273,6 +3527,15 @@
       <c r="I25">
         <v>2.55700481762471</v>
       </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25">
+        <v>12</v>
+      </c>
       <c r="M25">
         <v>7166</v>
       </c>
@@ -2283,14 +3546,50 @@
         <v>1655348265665.96</v>
       </c>
       <c r="P25">
-        <v>0.0847</v>
+        <v>0.23807</v>
       </c>
       <c r="Q25">
-        <v>89.19929</v>
+        <v>215.72807</v>
+      </c>
+      <c r="R25">
+        <v>38</v>
+      </c>
+      <c r="S25">
+        <v>89</v>
+      </c>
+      <c r="T25">
+        <v>861933968740.332</v>
+      </c>
+      <c r="U25">
+        <v>3346.48703949478</v>
+      </c>
+      <c r="V25">
+        <v>4.7939213038221</v>
+      </c>
+      <c r="W25">
+        <v>3.52896031266474</v>
+      </c>
+      <c r="X25">
+        <v>13.520732350571</v>
+      </c>
+      <c r="Y25">
+        <v>40.0148073054757</v>
+      </c>
+      <c r="Z25">
+        <v>43.3238451323323</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
+      <c r="AG25">
+        <v>1.19028451331541</v>
+      </c>
+      <c r="AH25">
+        <v>142.177125366395</v>
+      </c>
+      <c r="AI25">
+        <v>53.742</v>
+      </c>
       <c r="AM25">
         <v>1.91981263977602</v>
       </c>
@@ -2298,28 +3597,43 @@
         <v>362.72194133</v>
       </c>
       <c r="AP25">
-        <v>0.0847</v>
+        <v>0.23807</v>
       </c>
       <c r="AQ25">
         <v>51918</v>
       </c>
+      <c r="AR25">
+        <v>2271</v>
+      </c>
       <c r="AS25" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:46">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>51.1</v>
+      </c>
+      <c r="E26">
+        <v>155</v>
+      </c>
+      <c r="F26">
+        <v>3.154762</v>
+      </c>
+      <c r="G26">
+        <v>118</v>
       </c>
       <c r="H26">
         <v>20.6964502542622</v>
       </c>
-      <c r="I26" t="s">
-        <v>112</v>
-      </c>
       <c r="M26">
         <v>30299</v>
       </c>
@@ -2335,9 +3649,45 @@
       <c r="Q26">
         <v>671.02399</v>
       </c>
+      <c r="R26">
+        <v>28</v>
+      </c>
+      <c r="S26">
+        <v>138</v>
+      </c>
+      <c r="T26">
+        <v>425326068422.881</v>
+      </c>
+      <c r="U26">
+        <v>5442.87477076039</v>
+      </c>
+      <c r="V26">
+        <v>4.34334340221696</v>
+      </c>
+      <c r="W26">
+        <v>3.01981902655648</v>
+      </c>
+      <c r="X26">
+        <v>9.337432840483229</v>
+      </c>
+      <c r="Y26">
+        <v>38.2286228109833</v>
+      </c>
+      <c r="Z26">
+        <v>52.4339443485335</v>
+      </c>
       <c r="AA26">
         <v>0</v>
       </c>
+      <c r="AG26">
+        <v>9.463216505236851</v>
+      </c>
+      <c r="AH26">
+        <v>48.5765079365079</v>
+      </c>
+      <c r="AI26">
+        <v>73.375</v>
+      </c>
       <c r="AM26">
         <v>1.10547551649492</v>
       </c>
@@ -2350,23 +3700,32 @@
       <c r="AQ26">
         <v>329107</v>
       </c>
+      <c r="AR26">
+        <v>15264</v>
+      </c>
       <c r="AS26" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:46">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>3.746428</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
       </c>
       <c r="H27">
         <v>14.105211130071</v>
       </c>
-      <c r="I27" t="s">
-        <v>112</v>
-      </c>
       <c r="M27">
         <v>249.463</v>
       </c>
@@ -2382,9 +3741,33 @@
       <c r="Q27">
         <v>103.92502</v>
       </c>
+      <c r="R27">
+        <v>18</v>
+      </c>
+      <c r="S27">
+        <v>168</v>
+      </c>
+      <c r="T27">
+        <v>168606686710.642</v>
+      </c>
+      <c r="U27">
+        <v>4629.07663359338</v>
+      </c>
+      <c r="V27">
+        <v>2.09999999999999</v>
+      </c>
+      <c r="W27">
+        <v>-1.12390085273492</v>
+      </c>
       <c r="AA27">
         <v>0</v>
       </c>
+      <c r="AH27">
+        <v>83.8630387732547</v>
+      </c>
+      <c r="AI27">
+        <v>69.471</v>
+      </c>
       <c r="AM27">
         <v>-2.16236976983533</v>
       </c>
@@ -2394,19 +3777,28 @@
       <c r="AP27">
         <v>0.0436</v>
       </c>
-      <c r="AQ27" t="s">
-        <v>112</v>
+      <c r="AR27">
+        <v>613</v>
       </c>
       <c r="AS27" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:46">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="D28">
+        <v>72.8</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
       </c>
       <c r="H28">
         <v>0.962752553897723</v>
@@ -2414,6 +3806,15 @@
       <c r="I28">
         <v>1.29066005069854</v>
       </c>
+      <c r="J28">
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>16</v>
+      </c>
       <c r="M28">
         <v>1404.378038</v>
       </c>
@@ -2424,14 +3825,41 @@
         <v>164759709000.097</v>
       </c>
       <c r="P28">
-        <v>4.25121</v>
+        <v>4.57606</v>
       </c>
       <c r="Q28">
         <v>8250.474179999999</v>
       </c>
+      <c r="R28">
+        <v>61</v>
+      </c>
+      <c r="S28">
+        <v>34</v>
+      </c>
+      <c r="T28">
+        <v>296075434804.981</v>
+      </c>
+      <c r="U28">
+        <v>35329.5110979167</v>
+      </c>
+      <c r="V28">
+        <v>2.48807622448481</v>
+      </c>
+      <c r="W28">
+        <v>0.473878077120403</v>
+      </c>
       <c r="AA28">
         <v>0</v>
       </c>
+      <c r="AG28">
+        <v>27.2432990241632</v>
+      </c>
+      <c r="AH28">
+        <v>387.264325323475</v>
+      </c>
+      <c r="AI28">
+        <v>92.14</v>
+      </c>
       <c r="AM28">
         <v>5.62324527942779</v>
       </c>
@@ -2439,27 +3867,48 @@
         <v>2843.0440065</v>
       </c>
       <c r="AP28">
-        <v>4.25121</v>
+        <v>4.57606</v>
       </c>
       <c r="AQ28">
         <v>3745</v>
       </c>
+      <c r="AR28">
+        <v>1436</v>
+      </c>
       <c r="AS28" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:46">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="D29">
+        <v>66.5</v>
+      </c>
+      <c r="E29">
+        <v>53</v>
+      </c>
+      <c r="F29">
+        <v>5.219048</v>
+      </c>
+      <c r="G29">
+        <v>84</v>
       </c>
       <c r="H29">
         <v>7.00619344737872</v>
       </c>
-      <c r="I29" t="s">
-        <v>112</v>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
       </c>
       <c r="M29">
         <v>344.1</v>
@@ -2471,14 +3920,50 @@
         <v>74118128861.0062</v>
       </c>
       <c r="P29">
-        <v>0.33201</v>
+        <v>0.71774</v>
       </c>
       <c r="Q29">
         <v>601.0913</v>
       </c>
+      <c r="R29">
+        <v>49</v>
+      </c>
+      <c r="S29">
+        <v>58</v>
+      </c>
+      <c r="T29">
+        <v>37517410299.2739</v>
+      </c>
+      <c r="U29">
+        <v>4940.04583805643</v>
+      </c>
+      <c r="V29">
+        <v>2.38268662851466</v>
+      </c>
+      <c r="W29">
+        <v>-0.0232006201219406</v>
+      </c>
+      <c r="X29">
+        <v>4.17398422334225</v>
+      </c>
+      <c r="Y29">
+        <v>29.6406318271146</v>
+      </c>
+      <c r="Z29">
+        <v>66.18538394954329</v>
+      </c>
       <c r="AA29">
         <v>0</v>
       </c>
+      <c r="AG29">
+        <v>4.68743254328023</v>
+      </c>
+      <c r="AH29">
+        <v>85.54344446947511</v>
+      </c>
+      <c r="AI29">
+        <v>83.679</v>
+      </c>
       <c r="AM29">
         <v>2.24601670494817</v>
       </c>
@@ -2486,21 +3971,39 @@
         <v>494.75364627</v>
       </c>
       <c r="AP29">
-        <v>0.33201</v>
+        <v>0.71774</v>
       </c>
       <c r="AQ29">
         <v>3085</v>
       </c>
+      <c r="AR29">
+        <v>26</v>
+      </c>
       <c r="AS29" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:46">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E30">
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <v>4.703571</v>
+      </c>
+      <c r="G30">
+        <v>93</v>
       </c>
       <c r="H30">
         <v>5.29951905118019</v>
@@ -2508,6 +4011,15 @@
       <c r="I30">
         <v>9.309768083616831</v>
       </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>13</v>
+      </c>
+      <c r="L30">
+        <v>14</v>
+      </c>
       <c r="M30">
         <v>206258</v>
       </c>
@@ -2518,14 +4030,50 @@
         <v>230321897222.207</v>
       </c>
       <c r="P30">
-        <v>0.14179</v>
+        <v>0.13255</v>
       </c>
       <c r="Q30">
-        <v>687.63518</v>
+        <v>661.5947</v>
+      </c>
+      <c r="R30">
+        <v>31</v>
+      </c>
+      <c r="S30">
+        <v>124</v>
+      </c>
+      <c r="T30">
+        <v>184360630555.504</v>
+      </c>
+      <c r="U30">
+        <v>10508.3964031895</v>
+      </c>
+      <c r="V30">
+        <v>1.20000000000036</v>
+      </c>
+      <c r="W30">
+        <v>-0.270354373879556</v>
+      </c>
+      <c r="X30">
+        <v>9.189160052069809</v>
+      </c>
+      <c r="Y30">
+        <v>33.2279211309936</v>
+      </c>
+      <c r="Z30">
+        <v>61.7647613416438</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
+      <c r="AG30">
+        <v>12.9343998312025</v>
+      </c>
+      <c r="AH30">
+        <v>6.49854650516724</v>
+      </c>
+      <c r="AI30">
+        <v>53.247</v>
+      </c>
       <c r="AM30">
         <v>0.12200420013061</v>
       </c>
@@ -2533,21 +4081,39 @@
         <v>858.76985003</v>
       </c>
       <c r="AP30">
-        <v>0.14179</v>
+        <v>0.13255</v>
       </c>
       <c r="AQ30">
         <v>8491</v>
       </c>
+      <c r="AR30">
+        <v>1055</v>
+      </c>
       <c r="AS30" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:46">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>60.8</v>
+      </c>
+      <c r="E31">
+        <v>90</v>
+      </c>
+      <c r="F31">
+        <v>5.607143</v>
+      </c>
+      <c r="G31">
+        <v>82</v>
       </c>
       <c r="H31">
         <v>66.8067226890756</v>
@@ -2555,11 +4121,11 @@
       <c r="I31">
         <v>1.94939026221767</v>
       </c>
-      <c r="M31" t="s">
-        <v>112</v>
-      </c>
-      <c r="N31" t="s">
-        <v>112</v>
+      <c r="K31">
+        <v>19</v>
+      </c>
+      <c r="L31">
+        <v>19</v>
       </c>
       <c r="O31">
         <v>80116893710.4523</v>
@@ -2570,9 +4136,45 @@
       <c r="Q31">
         <v>491.81342</v>
       </c>
+      <c r="R31">
+        <v>41</v>
+      </c>
+      <c r="S31">
+        <v>78</v>
+      </c>
+      <c r="T31">
+        <v>112811565304.088</v>
+      </c>
+      <c r="U31">
+        <v>28984.6433890283</v>
+      </c>
+      <c r="V31">
+        <v>-0.40000000000002</v>
+      </c>
+      <c r="W31">
+        <v>-3.95688421333904</v>
+      </c>
+      <c r="X31">
+        <v>0.136286425345325</v>
+      </c>
+      <c r="Y31">
+        <v>64.27116705701729</v>
+      </c>
+      <c r="Z31">
+        <v>35.3205313990741</v>
+      </c>
       <c r="AA31">
         <v>0</v>
       </c>
+      <c r="AG31">
+        <v>1.37955969627844</v>
+      </c>
+      <c r="AH31">
+        <v>218.412738496072</v>
+      </c>
+      <c r="AI31">
+        <v>98.342</v>
+      </c>
       <c r="AM31">
         <v>-0.0150888612205668</v>
       </c>
@@ -2582,19 +4184,31 @@
       <c r="AP31">
         <v>0.08079</v>
       </c>
-      <c r="AQ31" t="s">
-        <v>112</v>
-      </c>
       <c r="AS31" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:46">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <v>62.3</v>
+      </c>
+      <c r="E32">
+        <v>79</v>
+      </c>
+      <c r="F32">
+        <v>5.896429</v>
+      </c>
+      <c r="G32">
+        <v>55</v>
       </c>
       <c r="H32">
         <v>17.6152097175161</v>
@@ -2614,12 +4228,45 @@
       <c r="P32">
         <v>0.10903</v>
       </c>
-      <c r="Q32" t="s">
-        <v>112</v>
+      <c r="R32">
+        <v>29</v>
+      </c>
+      <c r="S32">
+        <v>132</v>
+      </c>
+      <c r="T32">
+        <v>6571853849.00585</v>
+      </c>
+      <c r="U32">
+        <v>1103.2153515202</v>
+      </c>
+      <c r="V32">
+        <v>3.46928079781574</v>
+      </c>
+      <c r="W32">
+        <v>1.35890349096086</v>
+      </c>
+      <c r="X32">
+        <v>10.2</v>
+      </c>
+      <c r="Y32">
+        <v>26.9157155736444</v>
+      </c>
+      <c r="Z32">
+        <v>57.1425849099294</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
+      <c r="AG32">
+        <v>4.15826446685031</v>
+      </c>
+      <c r="AH32">
+        <v>31.0583941605839</v>
+      </c>
+      <c r="AI32">
+        <v>35.707</v>
+      </c>
       <c r="AM32">
         <v>0.575815406298862</v>
       </c>
@@ -2632,28 +4279,34 @@
       <c r="AQ32">
         <v>519</v>
       </c>
+      <c r="AR32">
+        <v>137</v>
+      </c>
       <c r="AS32" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:46">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" t="s">
-        <v>112</v>
-      </c>
-      <c r="M33" t="s">
-        <v>112</v>
-      </c>
-      <c r="N33" t="s">
-        <v>112</v>
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>57.4</v>
+      </c>
+      <c r="E33">
+        <v>110</v>
+      </c>
+      <c r="F33">
+        <v>3.851191</v>
+      </c>
+      <c r="G33">
+        <v>118</v>
       </c>
       <c r="O33">
         <v>28640507901.5685</v>
@@ -2664,9 +4317,45 @@
       <c r="Q33">
         <v>15.82603</v>
       </c>
+      <c r="R33">
+        <v>29</v>
+      </c>
+      <c r="S33">
+        <v>132</v>
+      </c>
+      <c r="T33">
+        <v>12327488340.7341</v>
+      </c>
+      <c r="U33">
+        <v>1812.32676524824</v>
+      </c>
+      <c r="V33">
+        <v>6.99522551975515</v>
+      </c>
+      <c r="W33">
+        <v>5.22210261113469</v>
+      </c>
+      <c r="X33">
+        <v>3.26582790327404</v>
+      </c>
+      <c r="Y33">
+        <v>30.8744568625836</v>
+      </c>
+      <c r="Z33">
+        <v>41.8820332815012</v>
+      </c>
       <c r="AA33">
         <v>0</v>
       </c>
+      <c r="AG33">
+        <v>0.163719749849799</v>
+      </c>
+      <c r="AH33">
+        <v>29.4715034662045</v>
+      </c>
+      <c r="AI33">
+        <v>38.614</v>
+      </c>
       <c r="AM33">
         <v>7.2783070805049</v>
       </c>
@@ -2676,19 +4365,31 @@
       <c r="AP33">
         <v>0.0371</v>
       </c>
-      <c r="AQ33" t="s">
-        <v>112</v>
-      </c>
       <c r="AS33" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:46">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E34">
+        <v>35</v>
+      </c>
+      <c r="F34">
+        <v>8.678572000000001</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
       </c>
       <c r="H34">
         <v>0.07553723668970749</v>
@@ -2706,14 +4407,50 @@
         <v>30113404306.7616</v>
       </c>
       <c r="P34">
-        <v>0.44292</v>
+        <v>0.51347</v>
       </c>
       <c r="Q34">
-        <v>1599.56966</v>
+        <v>1785.94326</v>
+      </c>
+      <c r="R34">
+        <v>58</v>
+      </c>
+      <c r="S34">
+        <v>41</v>
+      </c>
+      <c r="T34">
+        <v>27035266718.4208</v>
+      </c>
+      <c r="U34">
+        <v>13664.9414278021</v>
+      </c>
+      <c r="V34">
+        <v>1.88691229576618</v>
+      </c>
+      <c r="W34">
+        <v>2.67700398843398</v>
+      </c>
+      <c r="X34">
+        <v>4.29084122577397</v>
+      </c>
+      <c r="Y34">
+        <v>23.3594899643621</v>
+      </c>
+      <c r="Z34">
+        <v>73.3746821323639</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
+      <c r="AG34">
+        <v>24.741427585271</v>
+      </c>
+      <c r="AH34">
+        <v>31.812831644959</v>
+      </c>
+      <c r="AI34">
+        <v>67.38200000000001</v>
+      </c>
       <c r="AM34">
         <v>1.21458444551443</v>
       </c>
@@ -2721,20 +4458,38 @@
         <v>1589.69204471</v>
       </c>
       <c r="AP34">
-        <v>0.44292</v>
+        <v>0.51347</v>
       </c>
       <c r="AQ34">
         <v>3434</v>
       </c>
+      <c r="AR34">
+        <v>90</v>
+      </c>
       <c r="AS34" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:46">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35">
+        <v>51.1</v>
+      </c>
+      <c r="E35">
+        <v>154</v>
+      </c>
+      <c r="F35">
+        <v>5.147619000000001</v>
+      </c>
+      <c r="G35">
         <v>77</v>
       </c>
       <c r="H35">
@@ -2743,46 +4498,94 @@
       <c r="I35">
         <v>5.66619171650023</v>
       </c>
-      <c r="M35" t="s">
-        <v>112</v>
-      </c>
-      <c r="N35" t="s">
-        <v>112</v>
+      <c r="J35">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
       </c>
       <c r="O35">
         <v>75892434363.8651</v>
       </c>
-      <c r="P35" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>112</v>
+      <c r="R35">
+        <v>28</v>
+      </c>
+      <c r="S35">
+        <v>138</v>
+      </c>
+      <c r="T35">
+        <v>47102873631.8408</v>
+      </c>
+      <c r="U35">
+        <v>8050.75075624426</v>
+      </c>
+      <c r="V35">
+        <v>1.50856704175307</v>
+      </c>
+      <c r="W35">
+        <v>-2.63188400844915</v>
+      </c>
+      <c r="X35">
+        <v>27.2435098559153</v>
+      </c>
+      <c r="Y35">
+        <v>20.6709620663426</v>
+      </c>
+      <c r="Z35">
+        <v>73.764035595287</v>
       </c>
       <c r="AA35">
         <v>0</v>
       </c>
+      <c r="AG35">
+        <v>22.7981998882784</v>
+      </c>
+      <c r="AH35">
+        <v>571.920136852395</v>
+      </c>
+      <c r="AI35">
+        <v>87.792</v>
+      </c>
       <c r="AM35">
         <v>5.0845143642286</v>
       </c>
       <c r="AO35">
         <v>1147.37477362</v>
       </c>
-      <c r="AP35" t="s">
-        <v>112</v>
-      </c>
       <c r="AQ35">
         <v>1253</v>
       </c>
+      <c r="AR35">
+        <v>110</v>
+      </c>
       <c r="AS35" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:46">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="D36">
+        <v>74.2</v>
+      </c>
+      <c r="E36">
+        <v>21</v>
+      </c>
+      <c r="F36">
+        <v>9.242857000000001</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
       </c>
       <c r="H36">
         <v>0.711031058816326</v>
@@ -2800,14 +4603,50 @@
         <v>55051756318.3455</v>
       </c>
       <c r="P36">
-        <v>0.84724</v>
+        <v>0.8925</v>
       </c>
       <c r="Q36">
-        <v>2931.66094</v>
+        <v>3013.18515</v>
+      </c>
+      <c r="R36">
+        <v>59</v>
+      </c>
+      <c r="S36">
+        <v>38</v>
+      </c>
+      <c r="T36">
+        <v>41243983586.5587</v>
+      </c>
+      <c r="U36">
+        <v>14172.2210702975</v>
+      </c>
+      <c r="V36">
+        <v>1.59377460567481</v>
+      </c>
+      <c r="W36">
+        <v>2.36764979271824</v>
+      </c>
+      <c r="X36">
+        <v>5.56500233837039</v>
+      </c>
+      <c r="Y36">
+        <v>30.5430010984739</v>
+      </c>
+      <c r="Z36">
+        <v>66.0152990157974</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
+      <c r="AG36">
+        <v>26.655136295174</v>
+      </c>
+      <c r="AH36">
+        <v>46.4331711208616</v>
+      </c>
+      <c r="AI36">
+        <v>66.508</v>
+      </c>
       <c r="AM36">
         <v>1.62928890004568</v>
       </c>
@@ -2815,21 +4654,39 @@
         <v>1978.26935572</v>
       </c>
       <c r="AP36">
-        <v>0.84724</v>
+        <v>0.8925</v>
       </c>
       <c r="AQ36">
         <v>3993</v>
       </c>
+      <c r="AR36">
+        <v>81</v>
+      </c>
       <c r="AS36" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:46">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E37">
+        <v>33</v>
+      </c>
+      <c r="F37">
+        <v>6.760714999999999</v>
+      </c>
+      <c r="G37">
+        <v>45</v>
       </c>
       <c r="H37">
         <v>4.65911362142491</v>
@@ -2852,9 +4709,45 @@
       <c r="Q37">
         <v>728.95025</v>
       </c>
+      <c r="R37">
+        <v>37</v>
+      </c>
+      <c r="S37">
+        <v>93</v>
+      </c>
+      <c r="T37">
+        <v>10086021260.9944</v>
+      </c>
+      <c r="U37">
+        <v>4852.65784744443</v>
+      </c>
+      <c r="V37">
+        <v>3.66528037380903</v>
+      </c>
+      <c r="W37">
+        <v>3.5242305579618</v>
+      </c>
+      <c r="X37">
+        <v>8.43079391258197</v>
+      </c>
+      <c r="Y37">
+        <v>26.1379004321792</v>
+      </c>
+      <c r="Z37">
+        <v>62.7006451456147</v>
+      </c>
       <c r="AA37">
         <v>0</v>
       </c>
+      <c r="AG37">
+        <v>16.7941704601614</v>
+      </c>
+      <c r="AH37">
+        <v>82.4128865979381</v>
+      </c>
+      <c r="AI37">
+        <v>57.104</v>
+      </c>
       <c r="AM37">
         <v>5.32273512883726</v>
       </c>
@@ -2867,31 +4760,37 @@
       <c r="AQ37">
         <v>1389</v>
       </c>
+      <c r="AR37">
+        <v>42</v>
+      </c>
       <c r="AS37" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:46">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2">
         <v>43328</v>
       </c>
       <c r="D38">
-        <v>74.5</v>
+        <v>74</v>
       </c>
       <c r="E38">
         <v>22</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>5.99881</v>
       </c>
       <c r="G38">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="H38">
         <v>1.56687280103591</v>
@@ -2899,14 +4798,14 @@
       <c r="I38">
         <v>1.54531081879587</v>
       </c>
-      <c r="J38" t="s">
-        <v>114</v>
-      </c>
-      <c r="K38" t="s">
-        <v>116</v>
-      </c>
-      <c r="L38" t="s">
-        <v>116</v>
+      <c r="J38">
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>15</v>
+      </c>
+      <c r="L38">
+        <v>15</v>
       </c>
       <c r="M38">
         <v>1234</v>
@@ -2918,16 +4817,16 @@
         <v>493417176224.378</v>
       </c>
       <c r="P38">
-        <v>1.30069</v>
+        <v>1.4377</v>
       </c>
       <c r="Q38">
-        <v>2273.98521</v>
+        <v>2357.91757</v>
       </c>
       <c r="R38">
         <v>47</v>
       </c>
       <c r="S38">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T38">
         <v>296217641787.223</v>
@@ -2936,19 +4835,19 @@
         <v>9766.16575200497</v>
       </c>
       <c r="V38">
-        <v>0.0495237060557724</v>
+        <v>4.95237060557724</v>
       </c>
       <c r="W38">
-        <v>0.0346789577381521</v>
+        <v>3.46789577381521</v>
       </c>
       <c r="X38">
         <v>0.0352706191844887</v>
       </c>
       <c r="Y38">
-        <v>0.39123658674467</v>
+        <v>39.123658674467</v>
       </c>
       <c r="Z38">
-        <v>0.443003497343713</v>
+        <v>44.3003497343713</v>
       </c>
       <c r="AA38">
         <v>0.8695107032728717</v>
@@ -2990,24 +4889,33 @@
         <v>1052.54758</v>
       </c>
       <c r="AP38">
-        <v>1.30069</v>
+        <v>1.4377</v>
       </c>
       <c r="AQ38">
         <v>19481</v>
       </c>
       <c r="AR38">
-        <v>1.109</v>
+        <v>1166</v>
       </c>
       <c r="AS38" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:46">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <v>53.2</v>
+      </c>
+      <c r="E39">
+        <v>141</v>
       </c>
       <c r="H39">
         <v>17.845797817127</v>
@@ -3015,46 +4923,76 @@
       <c r="I39">
         <v>10.45472871593</v>
       </c>
-      <c r="M39" t="s">
-        <v>112</v>
-      </c>
-      <c r="N39" t="s">
-        <v>112</v>
-      </c>
-      <c r="O39" t="s">
-        <v>112</v>
-      </c>
-      <c r="P39" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>112</v>
+      <c r="R39">
+        <v>31</v>
+      </c>
+      <c r="S39">
+        <v>124</v>
+      </c>
+      <c r="T39">
+        <v>3142812004.19099</v>
+      </c>
+      <c r="U39">
+        <v>7681.07576733719</v>
+      </c>
+      <c r="V39">
+        <v>1.51388419597605</v>
+      </c>
+      <c r="W39">
+        <v>-0.511366955012065</v>
+      </c>
+      <c r="X39">
+        <v>4.75907978438019</v>
+      </c>
+      <c r="Y39">
+        <v>19.3476884103863</v>
+      </c>
+      <c r="Z39">
+        <v>77.1252496711648</v>
       </c>
       <c r="AA39">
         <v>0</v>
       </c>
+      <c r="AG39">
+        <v>5.64379415880673</v>
+      </c>
+      <c r="AH39">
+        <v>1363.87666666667</v>
+      </c>
+      <c r="AI39">
+        <v>45.536</v>
+      </c>
       <c r="AM39">
         <v>10.4666730201757</v>
       </c>
       <c r="AO39">
         <v>1628.54287872</v>
       </c>
-      <c r="AP39" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>112</v>
-      </c>
       <c r="AS39" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:46">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <v>59.1</v>
+      </c>
+      <c r="E40">
+        <v>97</v>
+      </c>
+      <c r="F40">
+        <v>5.957143</v>
+      </c>
+      <c r="G40">
+        <v>54</v>
       </c>
       <c r="H40">
         <v>3.42323285739468</v>
@@ -3077,9 +5015,42 @@
       <c r="Q40">
         <v>723.88211</v>
       </c>
+      <c r="R40">
+        <v>33</v>
+      </c>
+      <c r="S40">
+        <v>117</v>
+      </c>
+      <c r="T40">
+        <v>6551161404.09357</v>
+      </c>
+      <c r="U40">
+        <v>1843.24280182141</v>
+      </c>
+      <c r="V40">
+        <v>-0.5</v>
+      </c>
+      <c r="W40">
+        <v>-0.437094241942518</v>
+      </c>
+      <c r="Y40">
+        <v>17.9488668324983</v>
+      </c>
+      <c r="Z40">
+        <v>68.22066088456251</v>
+      </c>
       <c r="AA40">
         <v>0</v>
       </c>
+      <c r="AG40">
+        <v>14.7107512032773</v>
+      </c>
+      <c r="AH40">
+        <v>123.764669011387</v>
+      </c>
+      <c r="AI40">
+        <v>44.995</v>
+      </c>
       <c r="AM40">
         <v>2.05109476271556</v>
       </c>
@@ -3092,22 +5063,46 @@
       <c r="AQ40">
         <v>3015</v>
       </c>
+      <c r="AR40">
+        <v>73</v>
+      </c>
       <c r="AS40" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:46">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="D41">
+        <v>55.4</v>
+      </c>
+      <c r="E41">
+        <v>126</v>
+      </c>
+      <c r="F41">
+        <v>6.592857</v>
+      </c>
+      <c r="G41">
+        <v>28</v>
       </c>
       <c r="H41">
         <v>13.5021655958073</v>
       </c>
-      <c r="I41" t="s">
-        <v>112</v>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
       </c>
       <c r="M41">
         <v>13493</v>
@@ -3121,12 +5116,45 @@
       <c r="P41">
         <v>0.13412</v>
       </c>
-      <c r="Q41" t="s">
-        <v>112</v>
+      <c r="R41">
+        <v>37</v>
+      </c>
+      <c r="S41">
+        <v>93</v>
+      </c>
+      <c r="T41">
+        <v>11757940908.6277</v>
+      </c>
+      <c r="U41">
+        <v>3973.43983362286</v>
+      </c>
+      <c r="V41">
+        <v>2.29544361018836</v>
+      </c>
+      <c r="W41">
+        <v>0.592451978660804</v>
+      </c>
+      <c r="X41">
+        <v>11.1614544222061</v>
+      </c>
+      <c r="Y41">
+        <v>34.0705088562784</v>
+      </c>
+      <c r="Z41">
+        <v>51.0797619902436</v>
       </c>
       <c r="AA41">
         <v>0</v>
       </c>
+      <c r="AG41">
+        <v>6.84549084390829</v>
+      </c>
+      <c r="AH41">
+        <v>1.90474394294395</v>
+      </c>
+      <c r="AI41">
+        <v>72.04000000000001</v>
+      </c>
       <c r="AM41">
         <v>15.0007071924412</v>
       </c>
@@ -3139,22 +5167,34 @@
       <c r="AQ41">
         <v>9101</v>
       </c>
+      <c r="AR41">
+        <v>124</v>
+      </c>
       <c r="AS41" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:46">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" t="s">
-        <v>112</v>
+        <v>85</v>
+      </c>
+      <c r="D42">
+        <v>60.5</v>
+      </c>
+      <c r="E42">
+        <v>92</v>
+      </c>
+      <c r="F42">
+        <v>7.346429</v>
+      </c>
+      <c r="G42">
+        <v>26</v>
       </c>
       <c r="M42">
         <v>168.9</v>
@@ -3166,14 +5206,50 @@
         <v>7817995080.02211</v>
       </c>
       <c r="P42">
-        <v>0.374</v>
+        <v>0.32454</v>
       </c>
       <c r="Q42">
-        <v>832.99638</v>
+        <v>714.26867</v>
+      </c>
+      <c r="R42">
+        <v>45</v>
+      </c>
+      <c r="S42">
+        <v>67</v>
+      </c>
+      <c r="T42">
+        <v>3992640233.17019</v>
+      </c>
+      <c r="U42">
+        <v>6415.03408351413</v>
+      </c>
+      <c r="V42">
+        <v>3.37469381321137</v>
+      </c>
+      <c r="W42">
+        <v>3.27869168427566</v>
+      </c>
+      <c r="X42">
+        <v>5.00731752736254</v>
+      </c>
+      <c r="Y42">
+        <v>20.3</v>
+      </c>
+      <c r="Z42">
+        <v>69.5</v>
       </c>
       <c r="AA42">
         <v>0</v>
       </c>
+      <c r="AG42">
+        <v>16.7105360538789</v>
+      </c>
+      <c r="AH42">
+        <v>46.2742007434944</v>
+      </c>
+      <c r="AI42">
+        <v>64.026</v>
+      </c>
       <c r="AM42">
         <v>8.90737901970053</v>
       </c>
@@ -3181,28 +5257,40 @@
         <v>1333.92989986</v>
       </c>
       <c r="AP42">
-        <v>0.374</v>
-      </c>
-      <c r="AQ42" t="s">
-        <v>112</v>
+        <v>0.32454</v>
+      </c>
+      <c r="AR42">
+        <v>10</v>
       </c>
       <c r="AS42" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:46">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="D43">
+        <v>53.6</v>
+      </c>
+      <c r="E43">
+        <v>139</v>
+      </c>
+      <c r="F43">
+        <v>3.375</v>
+      </c>
+      <c r="G43">
+        <v>104</v>
       </c>
       <c r="H43">
         <v>9.003221505158089</v>
       </c>
-      <c r="I43" t="s">
-        <v>112</v>
-      </c>
       <c r="M43">
         <v>885</v>
       </c>
@@ -3213,14 +5301,44 @@
         <v>119563869363.418</v>
       </c>
       <c r="P43">
-        <v>0.16216</v>
+        <v>0.03082</v>
       </c>
       <c r="Q43">
-        <v>15.28931</v>
+        <v>29.07968</v>
+      </c>
+      <c r="R43">
+        <v>29</v>
+      </c>
+      <c r="S43">
+        <v>132</v>
+      </c>
+      <c r="T43">
+        <v>64865515159.2277</v>
+      </c>
+      <c r="U43">
+        <v>1203.50538655951</v>
+      </c>
+      <c r="V43">
+        <v>6.99127097835952</v>
+      </c>
+      <c r="W43">
+        <v>6.07813464292907</v>
+      </c>
+      <c r="X43">
+        <v>15.5074719341824</v>
       </c>
       <c r="AA43">
         <v>0</v>
       </c>
+      <c r="AG43">
+        <v>0.267317173203546</v>
+      </c>
+      <c r="AH43">
+        <v>82.5276443927237</v>
+      </c>
+      <c r="AI43">
+        <v>34.098</v>
+      </c>
       <c r="AM43">
         <v>1.81310084339966</v>
       </c>
@@ -3228,21 +5346,36 @@
         <v>291.08854671</v>
       </c>
       <c r="AP43">
-        <v>0.16216</v>
+        <v>0.03082</v>
       </c>
       <c r="AQ43">
         <v>4422</v>
       </c>
       <c r="AS43" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:46">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="D44">
+        <v>53.8</v>
+      </c>
+      <c r="E44">
+        <v>136</v>
+      </c>
+      <c r="F44">
+        <v>4.521429</v>
+      </c>
+      <c r="G44">
+        <v>76</v>
       </c>
       <c r="H44">
         <v>17.7700383177162</v>
@@ -3250,12 +5383,6 @@
       <c r="I44">
         <v>1.69908552229355</v>
       </c>
-      <c r="M44" t="s">
-        <v>112</v>
-      </c>
-      <c r="N44" t="s">
-        <v>112</v>
-      </c>
       <c r="O44">
         <v>54518774848.5622</v>
       </c>
@@ -3265,9 +5392,45 @@
       <c r="Q44">
         <v>61.05915</v>
       </c>
+      <c r="R44">
+        <v>31</v>
+      </c>
+      <c r="S44">
+        <v>124</v>
+      </c>
+      <c r="T44">
+        <v>20880545907.4264</v>
+      </c>
+      <c r="U44">
+        <v>732.298716316243</v>
+      </c>
+      <c r="V44">
+        <v>3.36295318337802</v>
+      </c>
+      <c r="W44">
+        <v>2.13415578359164</v>
+      </c>
+      <c r="X44">
+        <v>13.830656461372</v>
+      </c>
+      <c r="Y44">
+        <v>15.6633876230348</v>
+      </c>
+      <c r="Z44">
+        <v>51.5505780300137</v>
+      </c>
       <c r="AA44">
         <v>0</v>
       </c>
+      <c r="AG44">
+        <v>0.891164315021582</v>
+      </c>
+      <c r="AH44">
+        <v>198.909661667248</v>
+      </c>
+      <c r="AI44">
+        <v>18.615</v>
+      </c>
       <c r="AM44">
         <v>0.557991092712381</v>
       </c>
@@ -3280,28 +5443,34 @@
       <c r="AQ44">
         <v>4005</v>
       </c>
+      <c r="AR44">
+        <v>20</v>
+      </c>
       <c r="AS44" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:46">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
-      </c>
-      <c r="H45" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" t="s">
-        <v>112</v>
-      </c>
-      <c r="M45" t="s">
-        <v>112</v>
-      </c>
-      <c r="N45" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="D45">
+        <v>61</v>
+      </c>
+      <c r="E45">
+        <v>88</v>
+      </c>
+      <c r="F45">
+        <v>4.428572</v>
+      </c>
+      <c r="G45">
+        <v>116</v>
       </c>
       <c r="O45">
         <v>56840288837.9454</v>
@@ -3312,9 +5481,45 @@
       <c r="Q45">
         <v>243.96162</v>
       </c>
+      <c r="R45">
+        <v>52</v>
+      </c>
+      <c r="S45">
+        <v>53</v>
+      </c>
+      <c r="T45">
+        <v>70254876462.9389</v>
+      </c>
+      <c r="U45">
+        <v>15645.0807292348</v>
+      </c>
+      <c r="V45">
+        <v>3.49999999999999</v>
+      </c>
+      <c r="W45">
+        <v>-2.36546119944124</v>
+      </c>
+      <c r="X45">
+        <v>1.29090515980516</v>
+      </c>
+      <c r="Y45">
+        <v>65.3299998728172</v>
+      </c>
+      <c r="Z45">
+        <v>40.7450001271828</v>
+      </c>
       <c r="AA45">
         <v>0</v>
       </c>
+      <c r="AG45">
+        <v>4.50944507208979</v>
+      </c>
+      <c r="AH45">
+        <v>14.5090177705977</v>
+      </c>
+      <c r="AI45">
+        <v>77.64100000000001</v>
+      </c>
       <c r="AM45">
         <v>7.99832070032044</v>
       </c>
@@ -3327,23 +5532,47 @@
       <c r="AQ45">
         <v>11307</v>
       </c>
+      <c r="AR45">
+        <v>4</v>
+      </c>
       <c r="AS45" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:46">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="D46">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>131</v>
+      </c>
+      <c r="F46">
+        <v>4.010715</v>
+      </c>
+      <c r="G46">
+        <v>98</v>
       </c>
       <c r="I46">
         <v>8.42948949057021</v>
       </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
       <c r="M46">
         <v>5031</v>
       </c>
@@ -3354,14 +5583,50 @@
         <v>842096832777.995</v>
       </c>
       <c r="P46">
-        <v>0.24605</v>
+        <v>0.23597</v>
       </c>
       <c r="Q46">
-        <v>293.6469</v>
+        <v>354.1302</v>
+      </c>
+      <c r="R46">
+        <v>33</v>
+      </c>
+      <c r="S46">
+        <v>117</v>
+      </c>
+      <c r="T46">
+        <v>269971498118.442</v>
+      </c>
+      <c r="U46">
+        <v>1428.98863660717</v>
+      </c>
+      <c r="V46">
+        <v>5.53810056237647</v>
+      </c>
+      <c r="W46">
+        <v>3.37030826529043</v>
+      </c>
+      <c r="X46">
+        <v>3.50485909005935</v>
+      </c>
+      <c r="Y46">
+        <v>18.9918473602083</v>
+      </c>
+      <c r="Z46">
+        <v>55.5440889943875</v>
       </c>
       <c r="AA46">
         <v>0</v>
       </c>
+      <c r="AG46">
+        <v>1.08499554530889</v>
+      </c>
+      <c r="AH46">
+        <v>245.076891344956</v>
+      </c>
+      <c r="AI46">
+        <v>38.758</v>
+      </c>
       <c r="AM46">
         <v>0.753111157181702</v>
       </c>
@@ -3369,21 +5634,39 @@
         <v>144.12382406</v>
       </c>
       <c r="AP46">
-        <v>0.24605</v>
+        <v>0.23597</v>
       </c>
       <c r="AQ46">
         <v>30632</v>
       </c>
+      <c r="AR46">
+        <v>193</v>
+      </c>
       <c r="AS46" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:46">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="D47">
+        <v>63.8</v>
+      </c>
+      <c r="E47">
+        <v>70</v>
+      </c>
+      <c r="F47">
+        <v>6.471429</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
       </c>
       <c r="H47">
         <v>20.3576079552952</v>
@@ -3391,6 +5674,15 @@
       <c r="I47">
         <v>1.57931120447704</v>
       </c>
+      <c r="J47">
+        <v>13</v>
+      </c>
+      <c r="K47">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>12</v>
+      </c>
       <c r="M47">
         <v>0.764</v>
       </c>
@@ -3406,9 +5698,45 @@
       <c r="Q47">
         <v>187.65898</v>
       </c>
+      <c r="R47">
+        <v>36</v>
+      </c>
+      <c r="S47">
+        <v>99</v>
+      </c>
+      <c r="T47">
+        <v>291965336390.95</v>
+      </c>
+      <c r="U47">
+        <v>2899.37527818265</v>
+      </c>
+      <c r="V47">
+        <v>5.80572866285858</v>
+      </c>
+      <c r="W47">
+        <v>4.16588236832258</v>
+      </c>
+      <c r="X47">
+        <v>4.63007864310703</v>
+      </c>
+      <c r="Y47">
+        <v>30.8898334926965</v>
+      </c>
+      <c r="Z47">
+        <v>58.843620179926</v>
+      </c>
       <c r="AA47">
         <v>0</v>
       </c>
+      <c r="AG47">
+        <v>23.2193422634894</v>
+      </c>
+      <c r="AH47">
+        <v>337.724771103733</v>
+      </c>
+      <c r="AI47">
+        <v>44.373</v>
+      </c>
       <c r="AM47">
         <v>2.9622487542996</v>
       </c>
@@ -3421,16 +5749,34 @@
       <c r="AQ47">
         <v>26922</v>
       </c>
+      <c r="AR47">
+        <v>323</v>
+      </c>
       <c r="AS47" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:46">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="D48">
+        <v>67.8</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+      <c r="F48">
+        <v>8.578571</v>
+      </c>
+      <c r="G48">
+        <v>11</v>
       </c>
       <c r="H48">
         <v>0.128545876239141</v>
@@ -3438,6 +5784,15 @@
       <c r="I48">
         <v>3.94101853324111</v>
       </c>
+      <c r="J48">
+        <v>16</v>
+      </c>
+      <c r="K48">
+        <v>15</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
       <c r="M48">
         <v>28720</v>
       </c>
@@ -3448,14 +5803,50 @@
         <v>645850605760.745</v>
       </c>
       <c r="P48">
-        <v>0.96538</v>
+        <v>1.03812</v>
       </c>
       <c r="Q48">
-        <v>2158.46105</v>
+        <v>2528.03773</v>
+      </c>
+      <c r="R48">
+        <v>60</v>
+      </c>
+      <c r="S48">
+        <v>36</v>
+      </c>
+      <c r="T48">
+        <v>474783393022.947</v>
+      </c>
+      <c r="U48">
+        <v>12494.4661900747</v>
+      </c>
+      <c r="V48">
+        <v>3.64971913068008</v>
+      </c>
+      <c r="W48">
+        <v>3.68310842296589</v>
+      </c>
+      <c r="X48">
+        <v>7.10442013570666</v>
+      </c>
+      <c r="Y48">
+        <v>33.541179641684</v>
+      </c>
+      <c r="Z48">
+        <v>63.6822741379658</v>
       </c>
       <c r="AA48">
         <v>0</v>
       </c>
+      <c r="AG48">
+        <v>18.9266123194534</v>
+      </c>
+      <c r="AH48">
+        <v>124.096188889977</v>
+      </c>
+      <c r="AI48">
+        <v>60.539</v>
+      </c>
       <c r="AM48">
         <v>2.05434480392046</v>
       </c>
@@ -3463,33 +5854,45 @@
         <v>1784.39698369</v>
       </c>
       <c r="AP48">
-        <v>0.96538</v>
+        <v>1.03812</v>
       </c>
       <c r="AQ48">
         <v>33128</v>
       </c>
+      <c r="AR48">
+        <v>3924</v>
+      </c>
       <c r="AS48" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:46">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" t="s">
-        <v>112</v>
-      </c>
-      <c r="I49" t="s">
-        <v>112</v>
-      </c>
-      <c r="M49" t="s">
-        <v>112</v>
-      </c>
-      <c r="N49" t="s">
-        <v>112</v>
+        <v>92</v>
+      </c>
+      <c r="D49">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E49">
+        <v>28</v>
+      </c>
+      <c r="F49">
+        <v>5.884524</v>
+      </c>
+      <c r="G49">
+        <v>97</v>
+      </c>
+      <c r="J49">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <v>19</v>
       </c>
       <c r="O49">
         <v>53859317384.6283</v>
@@ -3500,9 +5903,45 @@
       <c r="Q49">
         <v>603.79063</v>
       </c>
+      <c r="R49">
+        <v>62</v>
+      </c>
+      <c r="S49">
+        <v>33</v>
+      </c>
+      <c r="T49">
+        <v>166907692307.692</v>
+      </c>
+      <c r="U49">
+        <v>74667.1970705737</v>
+      </c>
+      <c r="V49">
+        <v>3.58277342974473</v>
+      </c>
+      <c r="W49">
+        <v>0.6500161136278</v>
+      </c>
+      <c r="X49">
+        <v>2.38355689170941</v>
+      </c>
+      <c r="Y49">
+        <v>55.7613934134812</v>
+      </c>
+      <c r="Z49">
+        <v>44.1023201611735</v>
+      </c>
       <c r="AA49">
         <v>0</v>
       </c>
+      <c r="AG49">
+        <v>9.90482010797578</v>
+      </c>
+      <c r="AH49">
+        <v>192.537037037037</v>
+      </c>
+      <c r="AI49">
+        <v>99.244</v>
+      </c>
       <c r="AM49">
         <v>-1.13862363609829</v>
       </c>
@@ -3515,16 +5954,28 @@
       <c r="AQ49">
         <v>1117</v>
       </c>
+      <c r="AR49">
+        <v>19</v>
+      </c>
       <c r="AS49" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:46">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="D50">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="E50">
+        <v>42</v>
       </c>
       <c r="H50">
         <v>0.035332354395594</v>
@@ -3542,14 +5993,50 @@
         <v>307149911443.49</v>
       </c>
       <c r="P50">
-        <v>0.48209</v>
+        <v>0.50296</v>
       </c>
       <c r="Q50">
-        <v>912.42412</v>
+        <v>890.17367</v>
+      </c>
+      <c r="R50">
+        <v>47</v>
+      </c>
+      <c r="S50">
+        <v>61</v>
+      </c>
+      <c r="T50">
+        <v>177954489851.961</v>
+      </c>
+      <c r="U50">
+        <v>8972.92251840971</v>
+      </c>
+      <c r="V50">
+        <v>3.73668357850366</v>
+      </c>
+      <c r="W50">
+        <v>4.13730059924066</v>
+      </c>
+      <c r="X50">
+        <v>3.44169988572866</v>
+      </c>
+      <c r="Y50">
+        <v>26.4496323093554</v>
+      </c>
+      <c r="Z50">
+        <v>68.7912879062644</v>
       </c>
       <c r="AA50">
         <v>0</v>
       </c>
+      <c r="AG50">
+        <v>18.5211131447778</v>
+      </c>
+      <c r="AH50">
+        <v>86.2165326261792</v>
+      </c>
+      <c r="AI50">
+        <v>54.564</v>
+      </c>
       <c r="AM50">
         <v>2.87285247092095</v>
       </c>
@@ -3557,21 +6044,39 @@
         <v>1152.17544922</v>
       </c>
       <c r="AP50">
-        <v>0.48209</v>
+        <v>0.50296</v>
       </c>
       <c r="AQ50">
         <v>18583</v>
       </c>
+      <c r="AR50">
+        <v>1098</v>
+      </c>
       <c r="AS50" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:46">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="D51">
+        <v>58.9</v>
+      </c>
+      <c r="E51">
+        <v>98</v>
+      </c>
+      <c r="F51">
+        <v>5.310715</v>
+      </c>
+      <c r="G51">
+        <v>81</v>
       </c>
       <c r="H51">
         <v>6.21762623104324</v>
@@ -3589,14 +6094,50 @@
         <v>1907823080181.34</v>
       </c>
       <c r="P51">
-        <v>1.09557</v>
+        <v>1.10733</v>
       </c>
       <c r="Q51">
-        <v>2979.09527</v>
+        <v>2851.70985</v>
+      </c>
+      <c r="R51">
+        <v>28</v>
+      </c>
+      <c r="S51">
+        <v>138</v>
+      </c>
+      <c r="T51">
+        <v>1326015096948.19</v>
+      </c>
+      <c r="U51">
+        <v>9057.11306037766</v>
+      </c>
+      <c r="V51">
+        <v>-3.72667344001421</v>
+      </c>
+      <c r="W51">
+        <v>-3.9340216039501</v>
+      </c>
+      <c r="X51">
+        <v>19.1842900302115</v>
+      </c>
+      <c r="Y51">
+        <v>32.6045564415853</v>
+      </c>
+      <c r="Z51">
+        <v>62.7653649153076</v>
       </c>
       <c r="AA51">
         <v>0</v>
       </c>
+      <c r="AG51">
+        <v>17.5131335604038</v>
+      </c>
+      <c r="AH51">
+        <v>8.798800503392901</v>
+      </c>
+      <c r="AI51">
+        <v>74.008</v>
+      </c>
       <c r="AM51">
         <v>0.529988841533747</v>
       </c>
@@ -3604,21 +6145,39 @@
         <v>1329.29241995</v>
       </c>
       <c r="AP51">
-        <v>1.09557</v>
+        <v>1.10733</v>
       </c>
       <c r="AQ51">
         <v>233430</v>
       </c>
+      <c r="AR51">
+        <v>22777</v>
+      </c>
       <c r="AS51" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:46">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="D52">
+        <v>60.7</v>
+      </c>
+      <c r="E52">
+        <v>91</v>
+      </c>
+      <c r="F52">
+        <v>4.265476</v>
+      </c>
+      <c r="G52">
+        <v>123</v>
       </c>
       <c r="H52">
         <v>23.0173047901435</v>
@@ -3626,6 +6185,12 @@
       <c r="I52">
         <v>1.61364907195792</v>
       </c>
+      <c r="K52">
+        <v>17</v>
+      </c>
+      <c r="L52">
+        <v>19</v>
+      </c>
       <c r="M52">
         <v>1852.472</v>
       </c>
@@ -3638,12 +6203,45 @@
       <c r="P52">
         <v>0.81516</v>
       </c>
-      <c r="Q52" t="s">
-        <v>112</v>
+      <c r="R52">
+        <v>49</v>
+      </c>
+      <c r="S52">
+        <v>58</v>
+      </c>
+      <c r="T52">
+        <v>646001866666.667</v>
+      </c>
+      <c r="U52">
+        <v>20481.7453220484</v>
+      </c>
+      <c r="V52">
+        <v>3.48565641322274</v>
+      </c>
+      <c r="W52">
+        <v>1.34041487086908</v>
+      </c>
+      <c r="X52">
+        <v>9.46274605767656</v>
+      </c>
+      <c r="Y52">
+        <v>45.8979065901564</v>
+      </c>
+      <c r="Z52">
+        <v>51.8379926249955</v>
       </c>
       <c r="AA52">
         <v>0</v>
       </c>
+      <c r="AG52">
+        <v>23.3838262018586</v>
+      </c>
+      <c r="AH52">
+        <v>14.6720559708609</v>
+      </c>
+      <c r="AI52">
+        <v>83.13</v>
+      </c>
       <c r="AM52">
         <v>0.5427698756384161</v>
       </c>
@@ -3656,22 +6254,46 @@
       <c r="AQ52">
         <v>7423</v>
       </c>
+      <c r="AR52">
+        <v>909</v>
+      </c>
       <c r="AS52" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:45">
+    <row r="53" spans="1:46">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="D53">
+        <v>63.9</v>
+      </c>
+      <c r="E53">
+        <v>69</v>
+      </c>
+      <c r="F53">
+        <v>7.403571</v>
+      </c>
+      <c r="G53">
+        <v>22</v>
       </c>
       <c r="H53">
         <v>5.06221866137756</v>
       </c>
-      <c r="I53" t="s">
-        <v>112</v>
+      <c r="J53">
+        <v>8</v>
+      </c>
+      <c r="K53">
+        <v>9</v>
+      </c>
+      <c r="L53">
+        <v>8</v>
       </c>
       <c r="M53">
         <v>3287.8</v>
@@ -3688,9 +6310,45 @@
       <c r="Q53">
         <v>2079.19966</v>
       </c>
+      <c r="R53">
+        <v>39</v>
+      </c>
+      <c r="S53">
+        <v>87</v>
+      </c>
+      <c r="T53">
+        <v>36513027127.6723</v>
+      </c>
+      <c r="U53">
+        <v>5143.94992561858</v>
+      </c>
+      <c r="V53">
+        <v>0.726074886537418</v>
+      </c>
+      <c r="W53">
+        <v>1.18483227762383</v>
+      </c>
+      <c r="X53">
+        <v>32.7860343469515</v>
+      </c>
+      <c r="Y53">
+        <v>30.1053105407539</v>
+      </c>
+      <c r="Z53">
+        <v>60.4319434015695</v>
+      </c>
       <c r="AA53">
         <v>0</v>
       </c>
+      <c r="AG53">
+        <v>15.5666212332322</v>
+      </c>
+      <c r="AH53">
+        <v>81.1599245369312</v>
+      </c>
+      <c r="AI53">
+        <v>55.553</v>
+      </c>
       <c r="AM53">
         <v>8.13196457614805</v>
       </c>
@@ -3703,16 +6361,34 @@
       <c r="AQ53">
         <v>3079</v>
       </c>
+      <c r="AR53">
+        <v>171</v>
+      </c>
       <c r="AS53" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:46">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="D54">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>7.154762</v>
+      </c>
+      <c r="G54">
+        <v>69</v>
       </c>
       <c r="H54">
         <v>0.07150825205228679</v>
@@ -3720,24 +6396,54 @@
       <c r="I54">
         <v>1.40020092664899</v>
       </c>
-      <c r="M54" t="s">
-        <v>112</v>
-      </c>
-      <c r="N54" t="s">
-        <v>112</v>
-      </c>
       <c r="O54">
         <v>151389274023.774</v>
       </c>
       <c r="P54">
-        <v>2.15996</v>
+        <v>2.22448</v>
       </c>
       <c r="Q54">
         <v>6729.67978</v>
       </c>
+      <c r="R54">
+        <v>85</v>
+      </c>
+      <c r="S54">
+        <v>3</v>
+      </c>
+      <c r="T54">
+        <v>292739307535.642</v>
+      </c>
+      <c r="U54">
+        <v>52888.7446717529</v>
+      </c>
+      <c r="V54">
+        <v>2.008372345195</v>
+      </c>
+      <c r="W54">
+        <v>0.805319025620818</v>
+      </c>
+      <c r="X54">
+        <v>18.2634544720488</v>
+      </c>
+      <c r="Y54">
+        <v>24.9446910609412</v>
+      </c>
+      <c r="Z54">
+        <v>75.0204398176603</v>
+      </c>
       <c r="AA54">
         <v>0</v>
       </c>
+      <c r="AG54">
+        <v>26.7169249363162</v>
+      </c>
+      <c r="AH54">
+        <v>7828.85714285714</v>
+      </c>
+      <c r="AI54">
+        <v>100</v>
+      </c>
       <c r="AM54">
         <v>22.5286495297057</v>
       </c>
@@ -3745,21 +6451,39 @@
         <v>4083.75168085</v>
       </c>
       <c r="AP54">
-        <v>2.15996</v>
+        <v>2.22448</v>
       </c>
       <c r="AQ54">
         <v>10608</v>
       </c>
+      <c r="AR54">
+        <v>1609</v>
+      </c>
       <c r="AS54" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:46">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D55">
+        <v>65</v>
+      </c>
+      <c r="E55">
+        <v>65</v>
+      </c>
+      <c r="F55">
+        <v>8.585713999999999</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
       </c>
       <c r="H55">
         <v>6.64156553388789e-05</v>
@@ -3777,14 +6501,50 @@
         <v>89613806855.9491</v>
       </c>
       <c r="P55">
-        <v>0.78965</v>
+        <v>0.88128</v>
       </c>
       <c r="Q55">
-        <v>2598.90401</v>
+        <v>2794.96048</v>
+      </c>
+      <c r="R55">
+        <v>50</v>
+      </c>
+      <c r="S55">
+        <v>57</v>
+      </c>
+      <c r="T55">
+        <v>86581789952.3123</v>
+      </c>
+      <c r="U55">
+        <v>15962.5722388828</v>
+      </c>
+      <c r="V55">
+        <v>3.59502093291218</v>
+      </c>
+      <c r="W55">
+        <v>3.49186614856126</v>
+      </c>
+      <c r="X55">
+        <v>8.67951186043066</v>
+      </c>
+      <c r="Y55">
+        <v>34.384839708011</v>
+      </c>
+      <c r="Z55">
+        <v>61.5662156970323</v>
       </c>
       <c r="AA55">
         <v>0</v>
       </c>
+      <c r="AG55">
+        <v>21.8405274218513</v>
+      </c>
+      <c r="AH55">
+        <v>112.794252204292</v>
+      </c>
+      <c r="AI55">
+        <v>53.598</v>
+      </c>
       <c r="AM55">
         <v>2.39663156157168</v>
       </c>
@@ -3792,21 +6552,39 @@
         <v>2172.16038986</v>
       </c>
       <c r="AP55">
-        <v>0.78965</v>
+        <v>0.88128</v>
       </c>
       <c r="AQ55">
         <v>8804</v>
       </c>
+      <c r="AR55">
+        <v>183</v>
+      </c>
       <c r="AS55" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:46">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D56">
+        <v>65.5</v>
+      </c>
+      <c r="E56">
+        <v>58</v>
+      </c>
+      <c r="F56">
+        <v>9.178572000000001</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
       </c>
       <c r="H56">
         <v>0.8082799979161081</v>
@@ -3814,6 +6592,15 @@
       <c r="I56">
         <v>3.20363445670628</v>
       </c>
+      <c r="J56">
+        <v>12</v>
+      </c>
+      <c r="K56">
+        <v>15</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
       <c r="M56">
         <v>4447.41</v>
       </c>
@@ -3824,14 +6611,50 @@
         <v>35269886428.8346</v>
       </c>
       <c r="P56">
-        <v>2.00202</v>
+        <v>1.85113</v>
       </c>
       <c r="Q56">
-        <v>3899.20024</v>
+        <v>4467.84001</v>
+      </c>
+      <c r="R56">
+        <v>60</v>
+      </c>
+      <c r="S56">
+        <v>36</v>
+      </c>
+      <c r="T56">
+        <v>42746980843.0904</v>
+      </c>
+      <c r="U56">
+        <v>20713.0747463331</v>
+      </c>
+      <c r="V56">
+        <v>2.87916089867399</v>
+      </c>
+      <c r="W56">
+        <v>2.79002881614979</v>
+      </c>
+      <c r="X56">
+        <v>4.04894459495668</v>
+      </c>
+      <c r="Y56">
+        <v>33.0631143382462</v>
+      </c>
+      <c r="Z56">
+        <v>64.7589486699775</v>
       </c>
       <c r="AA56">
         <v>0</v>
       </c>
+      <c r="AG56">
+        <v>26.5508346534386</v>
+      </c>
+      <c r="AH56">
+        <v>102.471102284012</v>
+      </c>
+      <c r="AI56">
+        <v>49.65</v>
+      </c>
       <c r="AM56">
         <v>2.80970465939965</v>
       </c>
@@ -3839,21 +6662,39 @@
         <v>2772.22977561</v>
       </c>
       <c r="AP56">
-        <v>2.00202</v>
+        <v>1.85113</v>
       </c>
       <c r="AQ56">
         <v>5590</v>
       </c>
+      <c r="AR56">
+        <v>470</v>
+      </c>
       <c r="AS56" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:46">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>56.4</v>
+      </c>
+      <c r="E57">
+        <v>115</v>
+      </c>
+      <c r="F57">
+        <v>6.614285000000001</v>
+      </c>
+      <c r="G57">
+        <v>41</v>
       </c>
       <c r="H57">
         <v>22.0548905792486</v>
@@ -3861,6 +6702,15 @@
       <c r="I57">
         <v>2.49843260637911</v>
       </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <v>8</v>
+      </c>
+      <c r="L57">
+        <v>9</v>
+      </c>
       <c r="M57">
         <v>127.39</v>
       </c>
@@ -3876,9 +6726,45 @@
       <c r="Q57">
         <v>106.98058</v>
       </c>
+      <c r="R57">
+        <v>38</v>
+      </c>
+      <c r="S57">
+        <v>89</v>
+      </c>
+      <c r="T57">
+        <v>82316172384.325</v>
+      </c>
+      <c r="U57">
+        <v>3926.17439589454</v>
+      </c>
+      <c r="V57">
+        <v>4.78598456723587</v>
+      </c>
+      <c r="W57">
+        <v>3.81139394477039</v>
+      </c>
+      <c r="X57">
+        <v>2.26410078484809</v>
+      </c>
+      <c r="Y57">
+        <v>30.7102356990977</v>
+      </c>
+      <c r="Z57">
+        <v>60.6102524404716</v>
+      </c>
       <c r="AA57">
         <v>0</v>
       </c>
+      <c r="AG57">
+        <v>2.64667982388139</v>
+      </c>
+      <c r="AH57">
+        <v>334.332642321799</v>
+      </c>
+      <c r="AI57">
+        <v>18.356</v>
+      </c>
       <c r="AM57">
         <v>1.81161980789565</v>
       </c>
@@ -3891,22 +6777,28 @@
       <c r="AQ57">
         <v>6893</v>
       </c>
+      <c r="AR57">
+        <v>277</v>
+      </c>
       <c r="AS57" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:46">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
-      </c>
-      <c r="H58" t="s">
-        <v>112</v>
-      </c>
-      <c r="I58" t="s">
-        <v>112</v>
+        <v>101</v>
+      </c>
+      <c r="F58">
+        <v>1.571429</v>
+      </c>
+      <c r="G58">
+        <v>128</v>
       </c>
       <c r="M58">
         <v>2206.297</v>
@@ -3923,9 +6815,27 @@
       <c r="Q58">
         <v>87.37663000000001</v>
       </c>
+      <c r="R58">
+        <v>13</v>
+      </c>
+      <c r="S58">
+        <v>178</v>
+      </c>
+      <c r="X58">
+        <v>4.46425076741224</v>
+      </c>
       <c r="AA58">
         <v>0</v>
       </c>
+      <c r="AG58">
+        <v>2.27954143918925</v>
+      </c>
+      <c r="AH58">
+        <v>100.75920601209</v>
+      </c>
+      <c r="AI58">
+        <v>57.656</v>
+      </c>
       <c r="AM58">
         <v>3.07377535072981</v>
       </c>
@@ -3938,16 +6848,34 @@
       <c r="AQ58">
         <v>8211</v>
       </c>
+      <c r="AR58">
+        <v>120</v>
+      </c>
       <c r="AS58" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:45">
+    <row r="59" spans="1:46">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="D59">
+        <v>55.6</v>
+      </c>
+      <c r="E59">
+        <v>122</v>
+      </c>
+      <c r="F59">
+        <v>3.313095</v>
+      </c>
+      <c r="G59">
+        <v>117</v>
       </c>
       <c r="H59">
         <v>15.9437469869174</v>
@@ -3967,12 +6895,45 @@
       <c r="P59">
         <v>0.11556</v>
       </c>
-      <c r="Q59" t="s">
-        <v>112</v>
+      <c r="R59">
+        <v>25</v>
+      </c>
+      <c r="S59">
+        <v>152</v>
+      </c>
+      <c r="T59">
+        <v>7853450374.0001</v>
+      </c>
+      <c r="U59">
+        <v>925.91188767081</v>
+      </c>
+      <c r="V59">
+        <v>4.19999999999999</v>
+      </c>
+      <c r="W59">
+        <v>1.91479670425866</v>
+      </c>
+      <c r="X59">
+        <v>2.17793699177633</v>
+      </c>
+      <c r="Y59">
+        <v>21.7472468474963</v>
+      </c>
+      <c r="Z59">
+        <v>50.8387360727688</v>
       </c>
       <c r="AA59">
         <v>0</v>
       </c>
+      <c r="AG59">
+        <v>0.07254178198530679</v>
+      </c>
+      <c r="AH59">
+        <v>60.6019934266933</v>
+      </c>
+      <c r="AI59">
+        <v>26.782</v>
+      </c>
       <c r="AM59">
         <v>2.93584693011557</v>
       </c>
@@ -3985,19 +6946,34 @@
       <c r="AQ59">
         <v>160</v>
       </c>
+      <c r="AR59">
+        <v>2</v>
+      </c>
       <c r="AS59" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:46">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D60">
-        <v>62</v>
+        <v>68.3</v>
+      </c>
+      <c r="E60">
+        <v>43</v>
+      </c>
+      <c r="F60">
+        <v>4.714286</v>
+      </c>
+      <c r="G60">
+        <v>110</v>
       </c>
       <c r="H60">
         <v>3.952756587923</v>
@@ -4005,6 +6981,15 @@
       <c r="I60">
         <v>3.07080205941109</v>
       </c>
+      <c r="J60">
+        <v>14</v>
+      </c>
+      <c r="K60">
+        <v>14</v>
+      </c>
+      <c r="L60">
+        <v>14</v>
+      </c>
       <c r="M60">
         <v>2562</v>
       </c>
@@ -4020,6 +7005,12 @@
       <c r="Q60">
         <v>1210.35067</v>
       </c>
+      <c r="R60">
+        <v>36</v>
+      </c>
+      <c r="S60">
+        <v>99</v>
+      </c>
       <c r="AA60">
         <v>0</v>
       </c>
@@ -4035,16 +7026,34 @@
       <c r="AQ60">
         <v>31183</v>
       </c>
+      <c r="AR60">
+        <v>979</v>
+      </c>
       <c r="AS60" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:46">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="D61">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>6.071429</v>
+      </c>
+      <c r="G61">
+        <v>89</v>
       </c>
       <c r="H61">
         <v>0.381747427685012</v>
@@ -4052,11 +7061,14 @@
       <c r="I61">
         <v>6.43557297967242</v>
       </c>
-      <c r="M61" t="s">
-        <v>112</v>
-      </c>
-      <c r="N61" t="s">
-        <v>112</v>
+      <c r="J61">
+        <v>19</v>
+      </c>
+      <c r="K61">
+        <v>19</v>
+      </c>
+      <c r="L61">
+        <v>19</v>
       </c>
       <c r="O61">
         <v>207961815062.363</v>
@@ -4067,9 +7079,36 @@
       <c r="Q61">
         <v>2406.57322</v>
       </c>
+      <c r="R61">
+        <v>70</v>
+      </c>
+      <c r="S61">
+        <v>23</v>
+      </c>
+      <c r="T61">
+        <v>370292716133.424</v>
+      </c>
+      <c r="U61">
+        <v>40438.3763627115</v>
+      </c>
+      <c r="V61">
+        <v>3.18267819490927</v>
+      </c>
+      <c r="W61">
+        <v>2.38461774621288</v>
+      </c>
       <c r="AA61">
         <v>0</v>
       </c>
+      <c r="AG61">
+        <v>11.5583999532482</v>
+      </c>
+      <c r="AH61">
+        <v>109.533050239234</v>
+      </c>
+      <c r="AI61">
+        <v>85.541</v>
+      </c>
       <c r="AM61">
         <v>2.50743967642557</v>
       </c>
@@ -4082,16 +7121,34 @@
       <c r="AQ61">
         <v>6075</v>
       </c>
+      <c r="AR61">
+        <v>52</v>
+      </c>
       <c r="AS61" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:46">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D62">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="E62">
+        <v>68</v>
+      </c>
+      <c r="F62">
+        <v>6.167857</v>
+      </c>
+      <c r="G62">
+        <v>67</v>
       </c>
       <c r="H62">
         <v>2.50452275929646</v>
@@ -4099,6 +7156,15 @@
       <c r="I62">
         <v>2.84271365893527</v>
       </c>
+      <c r="J62">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>11</v>
+      </c>
+      <c r="L62">
+        <v>12</v>
+      </c>
       <c r="M62">
         <v>10773</v>
       </c>
@@ -4109,14 +7175,50 @@
         <v>1103921337086.31</v>
       </c>
       <c r="P62">
-        <v>0.8815</v>
+        <v>0.96156</v>
       </c>
       <c r="Q62">
-        <v>1215.77837</v>
+        <v>1385.75729</v>
+      </c>
+      <c r="R62">
+        <v>41</v>
+      </c>
+      <c r="S62">
+        <v>78</v>
+      </c>
+      <c r="T62">
+        <v>718221078308.824</v>
+      </c>
+      <c r="U62">
+        <v>9130.02606479616</v>
+      </c>
+      <c r="V62">
+        <v>1.98788966658702</v>
+      </c>
+      <c r="W62">
+        <v>2.47524471544042</v>
+      </c>
+      <c r="X62">
+        <v>10.4962034639346</v>
+      </c>
+      <c r="Y62">
+        <v>26.4912091465332</v>
+      </c>
+      <c r="Z62">
+        <v>64.9192896320277</v>
       </c>
       <c r="AA62">
         <v>0</v>
       </c>
+      <c r="AG62">
+        <v>11.6913362365768</v>
+      </c>
+      <c r="AH62">
+        <v>102.212530696568</v>
+      </c>
+      <c r="AI62">
+        <v>73.39700000000001</v>
+      </c>
       <c r="AM62">
         <v>1.70174107390969</v>
       </c>
@@ -4124,27 +7226,39 @@
         <v>1089.24502526</v>
       </c>
       <c r="AP62">
-        <v>0.8815</v>
+        <v>0.96156</v>
       </c>
       <c r="AQ62">
         <v>215220</v>
       </c>
+      <c r="AR62">
+        <v>8175</v>
+      </c>
       <c r="AS62" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:46">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
-      </c>
-      <c r="H63" t="s">
-        <v>112</v>
-      </c>
-      <c r="I63" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="D63">
+        <v>48.4</v>
+      </c>
+      <c r="E63">
+        <v>164</v>
+      </c>
+      <c r="F63">
+        <v>3.139286</v>
+      </c>
+      <c r="G63">
+        <v>120</v>
       </c>
       <c r="M63">
         <v>13327</v>
@@ -4155,40 +7269,67 @@
       <c r="O63">
         <v>4250493315.10895</v>
       </c>
-      <c r="P63" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>112</v>
+      <c r="R63">
+        <v>20</v>
+      </c>
+      <c r="S63">
+        <v>161</v>
+      </c>
+      <c r="T63">
+        <v>37334232257.1429</v>
+      </c>
+      <c r="U63">
+        <v>6947.84002260404</v>
+      </c>
+      <c r="V63">
+        <v>3.98485920209721</v>
+      </c>
+      <c r="W63">
+        <v>5.1856911041976</v>
+      </c>
+      <c r="X63">
+        <v>8.58950122143913</v>
       </c>
       <c r="AA63">
         <v>0</v>
       </c>
+      <c r="AG63">
+        <v>0.0433375898383527</v>
+      </c>
+      <c r="AH63">
+        <v>11.4346860170664</v>
+      </c>
+      <c r="AI63">
+        <v>50.037</v>
+      </c>
       <c r="AM63">
         <v>4.87019465317109</v>
       </c>
       <c r="AO63">
         <v>1116.85998453</v>
       </c>
-      <c r="AP63" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ63" t="s">
-        <v>112</v>
+      <c r="AR63">
+        <v>44</v>
       </c>
       <c r="AS63" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:46">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D64">
-        <v>55</v>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
       </c>
       <c r="H64">
         <v>0.0477474161684688</v>
@@ -4196,6 +7337,15 @@
       <c r="I64">
         <v>0.734659749879133</v>
       </c>
+      <c r="J64">
+        <v>20</v>
+      </c>
+      <c r="K64">
+        <v>21</v>
+      </c>
+      <c r="L64">
+        <v>20</v>
+      </c>
       <c r="M64">
         <v>12511.867</v>
       </c>
@@ -4206,10 +7356,16 @@
         <v>1742226707498.72</v>
       </c>
       <c r="P64">
-        <v>1.68847</v>
+        <v>1.6736</v>
       </c>
       <c r="Q64">
-        <v>4429.58378</v>
+        <v>4376.95773</v>
+      </c>
+      <c r="R64">
+        <v>80</v>
+      </c>
+      <c r="S64">
+        <v>11</v>
       </c>
       <c r="AA64">
         <v>0</v>
@@ -4221,21 +7377,33 @@
         <v>4177.81513137</v>
       </c>
       <c r="AP64">
-        <v>1.68847</v>
+        <v>1.6736</v>
       </c>
       <c r="AQ64">
         <v>132300</v>
       </c>
+      <c r="AR64">
+        <v>13301</v>
+      </c>
       <c r="AS64" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:45">
+    <row r="65" spans="1:46">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="D65">
+        <v>76.8</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
       </c>
       <c r="H65">
         <v>2.64259418024106</v>
@@ -4243,6 +7411,12 @@
       <c r="I65">
         <v>1.12682415706513</v>
       </c>
+      <c r="K65">
+        <v>20</v>
+      </c>
+      <c r="L65">
+        <v>21</v>
+      </c>
       <c r="M65">
         <v>2445132</v>
       </c>
@@ -4253,10 +7427,16 @@
         <v>13321407000000</v>
       </c>
       <c r="P65">
-        <v>2.74418</v>
+        <v>2.80161</v>
       </c>
       <c r="Q65">
-        <v>4313.38348</v>
+        <v>4256.29052</v>
+      </c>
+      <c r="R65">
+        <v>71</v>
+      </c>
+      <c r="S65">
+        <v>22</v>
       </c>
       <c r="AA65">
         <v>0</v>
@@ -4268,21 +7448,39 @@
         <v>9869.742381739999</v>
       </c>
       <c r="AP65">
-        <v>2.74418</v>
+        <v>2.80161</v>
       </c>
       <c r="AQ65">
         <v>428225</v>
       </c>
+      <c r="AR65">
+        <v>293904</v>
+      </c>
       <c r="AS65" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:45">
+    <row r="66" spans="1:46">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="D66">
+        <v>52.3</v>
+      </c>
+      <c r="E66">
+        <v>147</v>
+      </c>
+      <c r="F66">
+        <v>6.539286</v>
+      </c>
+      <c r="G66">
+        <v>36</v>
       </c>
       <c r="H66">
         <v>3.99768085531341</v>
@@ -4290,6 +7488,15 @@
       <c r="I66">
         <v>54.5412958746154</v>
       </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
       <c r="M66">
         <v>191914</v>
       </c>
@@ -4303,11 +7510,47 @@
         <v>0.44853</v>
       </c>
       <c r="Q66">
-        <v>1119.47911</v>
+        <v>994.07744</v>
+      </c>
+      <c r="R66">
+        <v>32</v>
+      </c>
+      <c r="S66">
+        <v>120</v>
+      </c>
+      <c r="T66">
+        <v>90615023323.73531</v>
+      </c>
+      <c r="U66">
+        <v>2114.95471628444</v>
+      </c>
+      <c r="V66">
+        <v>-0.5</v>
+      </c>
+      <c r="W66">
+        <v>-9.57171491891337</v>
+      </c>
+      <c r="X66">
+        <v>0.725777246412041</v>
+      </c>
+      <c r="Y66">
+        <v>25.9104766821382</v>
+      </c>
+      <c r="Z66">
+        <v>60.0531887054144</v>
       </c>
       <c r="AA66">
         <v>0</v>
       </c>
+      <c r="AG66">
+        <v>9.2935235606424</v>
+      </c>
+      <c r="AH66">
+        <v>78.0194020575848</v>
+      </c>
+      <c r="AI66">
+        <v>69.69499999999999</v>
+      </c>
       <c r="AM66">
         <v>1.89249794728758</v>
       </c>
@@ -4320,16 +7563,34 @@
       <c r="AQ66">
         <v>47531</v>
       </c>
+      <c r="AR66">
+        <v>2283</v>
+      </c>
       <c r="AS66" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:45">
+    <row r="67" spans="1:46">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="D67">
+        <v>53.3</v>
+      </c>
+      <c r="E67">
+        <v>140</v>
+      </c>
+      <c r="F67">
+        <v>3.726191</v>
+      </c>
+      <c r="G67">
+        <v>113</v>
       </c>
       <c r="H67">
         <v>5.186860136235</v>
@@ -4352,9 +7613,45 @@
       <c r="Q67">
         <v>496.336</v>
       </c>
+      <c r="R67">
+        <v>23</v>
+      </c>
+      <c r="S67">
+        <v>158</v>
+      </c>
+      <c r="T67">
+        <v>66732801392.6618</v>
+      </c>
+      <c r="U67">
+        <v>2132.07244181734</v>
+      </c>
+      <c r="V67">
+        <v>7.99999999999994</v>
+      </c>
+      <c r="W67">
+        <v>6.13050048722816</v>
+      </c>
+      <c r="X67">
+        <v>14.0363346124475</v>
+      </c>
+      <c r="Y67">
+        <v>34.6262346289219</v>
+      </c>
+      <c r="Z67">
+        <v>47.1103108990293</v>
+      </c>
       <c r="AA67">
         <v>0</v>
       </c>
+      <c r="AG67">
+        <v>1.86620798965521</v>
+      </c>
+      <c r="AH67">
+        <v>73.5766337564645</v>
+      </c>
+      <c r="AI67">
+        <v>36.365</v>
+      </c>
       <c r="AM67">
         <v>1.23622661905596</v>
       </c>
@@ -4367,23 +7664,47 @@
       <c r="AQ67">
         <v>6750</v>
       </c>
+      <c r="AR67">
+        <v>357</v>
+      </c>
       <c r="AS67" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:46">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
-      </c>
-      <c r="H68" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="D68">
+        <v>55.3</v>
+      </c>
+      <c r="E68">
+        <v>128</v>
+      </c>
+      <c r="F68">
+        <v>4.407143</v>
+      </c>
+      <c r="G68">
+        <v>108</v>
       </c>
       <c r="I68">
         <v>1.82498122953095</v>
       </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>9</v>
+      </c>
+      <c r="L68">
+        <v>9</v>
+      </c>
       <c r="M68">
         <v>3574</v>
       </c>
@@ -4394,14 +7715,50 @@
         <v>402891017619.077</v>
       </c>
       <c r="P68">
-        <v>0.44113</v>
+        <v>0.52654</v>
       </c>
       <c r="Q68">
-        <v>672.07381</v>
+        <v>700.77914</v>
+      </c>
+      <c r="R68">
+        <v>33</v>
+      </c>
+      <c r="S68">
+        <v>117</v>
+      </c>
+      <c r="T68">
+        <v>193599379094.859</v>
+      </c>
+      <c r="U68">
+        <v>2111.13802366815</v>
+      </c>
+      <c r="V68">
+        <v>6.67928878891431</v>
+      </c>
+      <c r="W68">
+        <v>5.54518487347883</v>
+      </c>
+      <c r="X68">
+        <v>16.9922120022076</v>
+      </c>
+      <c r="Y68">
+        <v>33.2500807324448</v>
+      </c>
+      <c r="Z68">
+        <v>39.7332895764278</v>
       </c>
       <c r="AA68">
         <v>0</v>
       </c>
+      <c r="AG68">
+        <v>6.48369457828886</v>
+      </c>
+      <c r="AH68">
+        <v>295.751926984229</v>
+      </c>
+      <c r="AI68">
+        <v>33.593</v>
+      </c>
       <c r="AM68">
         <v>6.32786216726311</v>
       </c>
@@ -4409,60 +7766,81 @@
         <v>356.27965474</v>
       </c>
       <c r="AP68">
-        <v>0.44113</v>
+        <v>0.52654</v>
       </c>
       <c r="AQ68">
         <v>55313</v>
       </c>
+      <c r="AR68">
+        <v>592</v>
+      </c>
       <c r="AS68" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:45">
+    <row r="69" spans="1:46">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
-      </c>
-      <c r="H69" t="s">
         <v>112</v>
       </c>
-      <c r="I69" t="s">
-        <v>112</v>
-      </c>
-      <c r="M69" t="s">
-        <v>112</v>
-      </c>
-      <c r="N69" t="s">
-        <v>112</v>
-      </c>
-      <c r="O69" t="s">
-        <v>112</v>
-      </c>
-      <c r="P69" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>112</v>
+      <c r="F69">
+        <v>1.721429</v>
+      </c>
+      <c r="G69">
+        <v>127</v>
+      </c>
+      <c r="R69">
+        <v>14</v>
+      </c>
+      <c r="S69">
+        <v>176</v>
+      </c>
+      <c r="T69">
+        <v>35954502303.5041</v>
+      </c>
+      <c r="U69">
+        <v>1408.14619260488</v>
+      </c>
+      <c r="V69">
+        <v>4.15570552616529</v>
+      </c>
+      <c r="W69">
+        <v>1.50247641027066</v>
       </c>
       <c r="AA69">
         <v>0</v>
       </c>
+      <c r="AG69">
+        <v>1.3617153255613</v>
+      </c>
+      <c r="AH69">
+        <v>50.8214765990492</v>
+      </c>
+      <c r="AI69">
+        <v>34.606</v>
+      </c>
       <c r="AM69">
         <v>-1.04813152076633</v>
       </c>
       <c r="AO69">
         <v>144.51825361</v>
       </c>
-      <c r="AP69" t="s">
-        <v>112</v>
-      </c>
       <c r="AQ69">
         <v>2941</v>
       </c>
+      <c r="AR69">
+        <v>15</v>
+      </c>
       <c r="AS69" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
